--- a/recoding.xlsx
+++ b/recoding.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="327">
   <si>
     <t>Anderson et al. (2023) coding</t>
   </si>
@@ -46,12 +47,12 @@
     <t>Hunt large game (≥45kg)</t>
   </si>
   <si>
-    <t>Summary</t>
-  </si>
-  <si>
     <t>Pseudoreplication</t>
   </si>
   <si>
+    <t>Logic of frequency coding</t>
+  </si>
+  <si>
     <t>!Kung San</t>
   </si>
   <si>
@@ -59,9 +60,9 @@
   </si>
   <si>
     <t>USS
-Table 1: Lee (1979, Singh (2001)
-Table S1: Lee (1979)
-Confirmation source: Lee (1979); Tanaka (1980)(Tanaka, 1980) as cited in Singh (2001)</t>
+Table 1: Lee (1979[36], Singh (2001)[47]
+Table S1: Lee (1979)[36]
+Confirmation source: Lee (1979)[36]; Tanaka (1980)[48] as cited in Singh (2001)[47]</t>
   </si>
   <si>
     <t>Yes</t>
@@ -83,12 +84,12 @@
     <t>Rarely</t>
   </si>
   <si>
-    <t>Women are said not to participate in formal hunts but do “collect” various game they may come across such as a poisonous snakes (the largest was said to be 3 meters)</t>
-  </si>
-  <si>
     <t>Yes, this group is the same as the Ju/hoansi</t>
   </si>
   <si>
+    <t>Though stated ‘women do not hunt’, it does seem to occur sometimes. For small game, paragraphs indicate opportunism. ‘Rarely’ coded for a single report of killing a large python.</t>
+  </si>
+  <si>
     <t>Ju/hoansi</t>
   </si>
   <si>
@@ -96,62 +97,55 @@
   </si>
   <si>
     <t>USS
-Table 1: Lee (1979), Brightman (1966)
-Table S1: Brightman (1966)
-Confirmation source: Brightman (1996) to original source of Marshall (1976)</t>
-  </si>
-  <si>
-    <t>“Among the Nyae Nyae Ju/'hoansi men are not excluded from gathering, whereas women are totally excluded from hunting. Women never participate in a !Kung hunt.” (Marshall 1976:96-97) as cited in Brightman (1996:704)
+Table 1: Lee (1979)[36], Brightman (1996)[33]
+Table S1: Brightman (1996)[33]
+Confirmation source: Marshall (1976)[35] as cited in Brightman (1996)[33]</t>
+  </si>
+  <si>
+    <t>"Women do not hunt. Meagan Biesele (personal communication) knew of one young woman in the !Gon!a area who used to hunt small game…They do collect tortoises, lizards, and snakes (the last as large as a 3-meter-long python), and they accurately and energetically kill poisonous snakes, spiders, and scorpions if they find them in the camp or on the path, but basically they leave hunting to the men." (Lee 1979:235)
+“... men are not excluded from gathering, whereas women are totally excluded from hunting. Women never participate in a !Kung hunt.” (Marshall 1976:96-97) as cited in Brightman (1996:704)
 “The Dobe Ju/'hoansi pose the interesting case of women who own arrows and loan them to men but, predictably, do not hunt with them” (Lee 1979:24) as cited in Brightman (1996:705)
-“Seemingly the commonest situation exists among the Dobe Ju/'hoansi, where women exhibited no desire to hunt and men did not resent their non-participation.” (Lee 1979:235) as cited in Brightman (1996:716)</t>
-  </si>
-  <si>
-    <t>No evidence.</t>
+“Seemingly the commonest situation exists among the Dobe Ju/'hoansi, where women exhibited no desire to hunt and men did not resent their non-participation (Lee 1979:235).” Brightman (1996:716)</t>
+  </si>
+  <si>
+    <t>Yes, this group is the same as the !Kung</t>
+  </si>
+  <si>
+    <t>Baka</t>
+  </si>
+  <si>
+    <t>gathering</t>
+  </si>
+  <si>
+    <t>USS
+Table 1: Reyes-García et al. (2020)[41]
+Table S1: Reyes-García et al. (2020)[41]
+Confirmation source: Lewis, 2002, as cited in Reyes-García et al., 2020[41]</t>
+  </si>
+  <si>
+    <t>““Big hunts,” or long expeditions targeting large mammals, have been described as a male activity, although their success is dependent on women’s collective and ritual power” Lewis (2002) as cited in Reyes-García et al. (2020: 207)
+“...medium-sized species predominated in Baka women’s harvests, in terms of both number of animals killed (65.9%) and yields (50%).” Reyes-García et al. (2020: 212)
+“...women killed fewer animals than men (Tsimane’ and Baka women killed 8.3% and 17.5% of the animals reported).” Reyes-García et al. (2020: 212)</t>
+  </si>
+  <si>
+    <t>Blue duiker (Philantomba monticola, 3.5–9 kg), Peter's duiker (Cephalophus callipygus, 19 kg), Bai duiker (Cephalophus dorsalis, 12 kg), Brush-tailed porcupine (Atherurus africanus, 2.8 kg), Emin's pouched rat (Cricetomys emini, 1.3 kg), Flat-headed cusimanse (Crossarchus platycephalus, 1.5 kg), Mice (1 kg), Black-footed mongoose (Bdeogale nigripes, 2 kg), Eastern putty-nosed monkey (Cercopithecus nicticans nicticans, 5.3 kg), Crowned guenon (Cercopithecus pogonias, 3.6 kg), Forest hinge-back tortoise (Kynixis erosa, 3 kg), Tree pangolin (Phataginus tricuspis, 1.5 kg) (Reyes-García et al., 2020, ESM)</t>
   </si>
   <si>
     <t>Never</t>
   </si>
   <si>
-    <t>Women do not hunt but may be said to acquire meat by loaning arrows to male hunters. Evidence conflicts between !Kung and Ju/hoansi despite being same population</t>
-  </si>
-  <si>
-    <t>Yes, this group is the same as the !Kung</t>
-  </si>
-  <si>
-    <t>Baka</t>
-  </si>
-  <si>
-    <t>gathering</t>
-  </si>
-  <si>
-    <t>USS
-Table 1: Reyes-García et al. (2020)
-Table S1: Reyes-García et al. (2020)
-Confirmation source: Lewis, 2002, as cited in Reyes-García et al., 2020</t>
-  </si>
-  <si>
-    <t>““Big hunts,” or long expeditions targeting large mammals, have been described as a male activity, although their success is dependent on women’s collective and ritual power” (Lewis 2002 as cited in Reyes-García et al. 2020: 207)
-“...medium-sized species predominated in Baka women’s harvests, in terms of both number of animals killed (65.9%) and yields (50%).” (Reyes-García et al. 2020: 212)</t>
-  </si>
-  <si>
-    <t>Blue duiker (Philantomba monticola, 3.5–9 kg), Peter's duiker (Cephalophus callipygus, 19 kg), Bai duiker (Cephalophus dorsalis, 12 kg), Brush-tailed porcupine (Atherurus africanus, 2.8 kg), Emin's pouched rat (Cricetomys emini, 1.3 kg), Flat-headed cusimanse (Crossarchus platycephalus, 1.5 kg), Mice (1 kg), Black-footed mongoose (Bdeogale nigripes, 2 kg), Eastern putty-nosed monkey (Cercopithecus nicticans nicticans, 5.3 kg), Corwned guenon (Cercopithecus pogonias, 3.6 kg), Forest hinge-back tortoise (Kynixis erosa, 3 kg), Tree pangolin (Phataginus tricuspis, 1.5 kg) (Reyes-García et al., 2020, ESM)</t>
-  </si>
-  <si>
-    <t>Frequently</t>
-  </si>
-  <si>
-    <t>Women hunt medium sized game.</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
+    <t>Women do not pursue large game (‘never’) and focused on medium-game, killing 17.5% of animals reported (‘sometimes’).</t>
+  </si>
+  <si>
     <t>Aka</t>
   </si>
   <si>
-    <t>Table 1: Kitanishi (1995); Noss &amp; Hewlett (2001)
-Table S1: Noss &amp; Hewlett, (2001); Brightman (1996)
-Confirmation source: Kitanishi (1995); Noss &amp; Hewlett (2001)</t>
+    <t>Table 1: Kitanishi (1995)[49]; Noss &amp; Hewlett (2001)[7]
+Table S1: Noss &amp; Hewlett, (2001)[7]; Brightman (1996)[33]
+Confirmation source: Kitanishi (1995)[49]; Noss &amp; Hewlett (2001)[7]</t>
   </si>
   <si>
     <t>"...men hunted with different methods, but women performed only net hunting…” Kitanishi 1995:89)
@@ -163,36 +157,38 @@
 Bushpig (Potamochoerus larvatus, 45-75 kg) (Kitanishi 1995:89)</t>
   </si>
   <si>
-    <t>Yes, mainly via net hunting but once recorded spear hunting a bushpig (because men were absent)</t>
+    <t>Women involved in net hunting, with frequency boosted due to male absence (‘sometimes’). Big-game hunting recorded only once (spear hunting a bushpig, ‘rarely’)</t>
   </si>
   <si>
     <t>Bambote</t>
   </si>
   <si>
-    <t>USS
-Table 1: Terashima (1980)
-Table S1: Terashima (1980)
-Confirmation source: Harako, 1976 as cited by Terashima (1980)</t>
-  </si>
-  <si>
-    <t>‘Net hunting (lubala) is a group activity, in which both men and women participate.” Terashima (1980:239)
+    <t>Table 1: Terashima (1980)[50]
+Table S1: Terashima (1980)[50]
+Confirmation source: Terashima (1980)[50]</t>
+  </si>
+  <si>
+    <t>“Net hunting (lubala) is a group activity, in which both men and women participate.” Terashima (1980:239)
 “When women are ready at their positions, they start driving animals.” Terashima (1980:240)
 “Nevertheless, the low participation ratio of women suggests that women are unwilling to hunt, an attitude which is more easily understood when it is known that female participation in hunting is an unusual event which began rather recently (see below). “ Terashima (1980:243)</t>
   </si>
   <si>
-    <t>Bush duiker (Sylvicapra grimmia, 12-25 kg), bushbuck (Tragelaphus sylvaticus, 45-80 kg), reedbuck (Redunca arundinum, 58 kg), and klipspringer (Oreotragus oreotragus, 22 kg)</t>
-  </si>
-  <si>
-    <t>Women act as beaters during net hunting but most were unwilling to hunt.</t>
+    <t>Bush duiker (Sylvicapra grimmia, 12-25 kg), bushbuck (Tragelaphus sylvaticus, 45-80 kg), reedbuck (Redunca arundinum, 58 kg), and klipspringer (Oreotragus oreotragus, 22 kg) [from Terashima 1980, p. 229 and p. 239]</t>
+  </si>
+  <si>
+    <t>Yes (Efe, Mbuti, Sua are same ethnolinguistic group)</t>
+  </si>
+  <si>
+    <t>Women are said to have “low participation” in hunting but do participate in net hunting (‘sometimes’). Size range of species hunted straddles cutoff , thus coded ‘sometimes’ for both.</t>
   </si>
   <si>
     <t>Efe</t>
   </si>
   <si>
     <t>USS
-Table 1: Brightman (1996); Peacock (1991)
-Table S1: Brightman (1996)
-Confirmation source: Brightman (1996) to original sources of Terashima (1983); Bailey and Aunger (1989); Estioko-Griffin (1985); Peacock (1991)</t>
+Table 1: Brightman (1996)[33]; Peacock (1991)
+Table S1: Brightman (1996)[33]
+Confirmation source: Brightman (1996)[33] to original sources of Terashima (1983); Bailey and Aunger (1989)[44]; Estioko-Griffin (1986)[51]; Peacock (1991)[52]</t>
   </si>
   <si>
     <t>“Some individual Agta and Efe women archers are described (Estioko-Griffin 1985:23-24; Bailey and Aunger 1989: 278; Terashima 1983), although these latter groups hunt in regional divisions of labor to produce meat for external trade.” Estioko-Griffin (1985:23-24); Bailey and Aunger (1989: 278); Terashima (1983) as cited by Brightman (1996: 701)
@@ -203,44 +199,56 @@
     <t>Bay duiker (Cephalophus dorsalis, 18–23 kg), Gabon duiker (Cephalophus callipygu, 18 kg), chevrotain (Tragulus kanchil, 9-12 kg), Pygmy antelope (Nesotragus batesi, 2-3 kg), Blue duiker (Philantomba monticola, 3.5–9 kg) (Terashima 1983:77)</t>
   </si>
   <si>
-    <t>Communal hunting of small game only</t>
+    <t>Women are said to “occasionally” participate in communal hunts for small game (‘sometimes’), but “precluded” from big-game hunting (‘never’).</t>
   </si>
   <si>
     <t>Mbuti</t>
   </si>
   <si>
     <t>USS
-Table 1: Brightman (1996); Ichikawa (1987)
-Table S1: Brightman (1996); Wilkie &amp; Curran (1991); Terashima (1983)
-Confirmation source: Brightman (1996) to original sources Ichikawa (1987); Turnbull (1965)</t>
+Table 1: Brightman (1996)[33]; Ichikawa (1987)[53]
+Table S1: Brightman (1996)[33]; Wilkie &amp; Curran (1991)[54]; Terashima (1983)
+Confirmation source: Brightman (1996)[33] to original sources Ichikawa (1987); Turnbull (1965)[55]</t>
   </si>
   <si>
     <t>“The principal hunting method in the Tetri region is net hunting in which both men and women participate.” Ichikawa (1987: 101)
-“Given that meat is more highly valued than field labor in these regions of the Ituri, it is not surprising that forager women invest their energy in hunting in order produce a tradable surplus of meat. Although this effectively explains why net- hunter women are involved in hunting for much of the year, it still does not explain why bows and arrows were abandoned and nets adopted.” Wilkie and Curran (1991: 682)
+“Given that meat is more highly valued than field labor in these regions of the Ituri, it is not surprising that forager women invest their energy in hunting in order to produce a tradable surplus of meat. Although this effectively explains why net- hunter women are involved in hunting for much of the year, it still does not explain why bows and arrows were abandoned and nets adopted.” Wilkie and Curran (1991: 682)
 “Mbuti women who are "likely to be off on the hunt, or on the trail somewhere when birth takes place" (Turnbull 1965:129)” Turnbull (1965:129) as cited by Brightman (1996:702)
 “The part women played in the hunt was symbolic and ritual rather than practical.” Terashima (1983:76)
-“One difference between begbe and musilo is as follows: while in musilo women do only a symbolic work, in begbe they are said to do practical work just like in net hunting. Harako and Turnbull " write: " ... [in begbe] women and children attend as beaters, taking the same formation as in net hunting" (Harako, 1976: 54)(Harako, 1976)” Harako, 1976: 54 as cited by Terashima (1983:79)</t>
-  </si>
-  <si>
-    <t>Forest duiker (Cephalophus natalensis, 5-25 kg) and chevrotain (Tragulus kanchil, 9-12 kg); duikers are rare component of diet (Ichikawa 2021)</t>
+“One difference between begbe and musilo is as follows: while in musilo women do only a symbolic work, in begbe they are said to do practical work just like in net hunting. Harako and Turnbull " write: " ... [in begbe] women and children attend as beaters, taking the same formation as in net hunting" (Harako, 1976: 54)[56]” Harako, 1976: 54 as cited by Terashima (1983:79)</t>
+  </si>
+  <si>
+    <t>Forest duiker (Cephalophus natalensis, 5-25 kg) and chevrotain (Tragulus kanchil, 9-12 kg); duikers are rare component of diet (Ichikawa, 2021)</t>
+  </si>
+  <si>
+    <t>Frequently</t>
+  </si>
+  <si>
+    <t>No Evidence</t>
+  </si>
+  <si>
+    <t>“...net- hunter women are involved in hunting for much of the year,” and this mainly involves smaller species (‘frequently’) rather than large ones but details lacking (‘no evidence’).</t>
   </si>
   <si>
     <t>Sua (Tswa)</t>
   </si>
   <si>
-    <t>Table 1: Bailey &amp; Aunger (1989)
+    <t>Table 1: Bailey &amp; Aunger (1989)[44]
 Table S1: No ref
-Confirmation source: Bailey &amp; Aunger (1989)</t>
+Confirmation source: Bailey &amp; Aunger (1989)[44]</t>
   </si>
   <si>
     <t>“The Tswa hunt almost exclusively with nets, catching primarily duiker, but also genet, mongoose, and other small and middle-sized mammals.” Bailey &amp; Aunger (1989: 275)
 “...women frequently do not participate in hunts. Tswa women do hunt when the Tswa are camped in the forest more than an hour from Budu villages.” Bailey &amp; Aunger (1989: 290)</t>
   </si>
   <si>
-    <t>Duiker (Cephalophus sp.), genet (Genetta sp. 2 kg), mongoose</t>
-  </si>
-  <si>
-    <t>Women will sometimes participate in collective hunting of small/medium-sized game</t>
+    <t>Duiker (Cephalophus sp.), genet (Genetta sp. 2 kg), mongoose Bailey &amp; Aunger (1989: 275 &amp; 286)</t>
+  </si>
+  <si>
+    <t>No evidence</t>
+  </si>
+  <si>
+    <t>Women participate in collective hunting of small-medium-sized game, but frequency downgraded by special circumstance (far from village) and remark that participation is not frequent (‘sometimes’).</t>
   </si>
   <si>
     <t>Kikuyu</t>
@@ -249,7 +257,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Table 1: Fedders &amp; Salvadori 1988; Nyamanga n.d. cited but not found
+    <t>Table 1: Fedders &amp; Salvadori 1979[57] [cited as 1988 in Anderson et. al 2023]; Nyamanga n.d. cited but not found
 Table S1: No ref
 Confirmation source: None</t>
   </si>
@@ -257,63 +265,61 @@
     <t>A</t>
   </si>
   <si>
-    <t>No evidence</t>
-  </si>
-  <si>
     <t>Hadza</t>
   </si>
   <si>
-    <t>Table 1: Marlowe (2010)
-Table S1: Marlowe (2010)
-Confirmation source: Marlowe (2010)</t>
+    <t>Table 1: Marlowe (2010)[23]
+Table S1: Marlowe (2010)[23]
+Confirmation source: Marlowe (2010)[23]</t>
   </si>
   <si>
     <t>“... Hadza women will kill game (usually small animals) when they have the chance...” (Marlowe, 2010:269)
+“Women, on rare occasions, kill some small animals, and they often butcher smaller animals and roast or boil the meat.” (Marlowe, 2010:130)
 “There are large mixed-sex foraging parties during berry season and during the time that the weaver bird, the redbilled quelea (Quelea quelea), has its mass reproduction. For about two weeks before the chicks are fledged, the Hadza pull down the nests, using a long branch to reach those higher up, and gather the chicks by the thousands.” (Marlowe, 2010:130)</t>
   </si>
   <si>
-    <t>Redbilled quelea (Quelea quelea, &lt;1 kg)</t>
-  </si>
-  <si>
-    <t>Women only opportunistically hunt small game or participate in mixed-sex collection of small game.</t>
+    <t>Redbilled quelea (Quelea quelea, &lt;1 kg) (Marlowe, 2010:130)
+Table 5.1 lists many small mammals (Marlowe, 2010:110)</t>
+  </si>
+  <si>
+    <t>Women ‘on rare occasions’ hunt small game or participate in mixed-sex collection of small game (‘rarely’). No evidence for large-game hunting.</t>
   </si>
   <si>
     <t>Bakola</t>
   </si>
   <si>
-    <t>Table 1: Ngima Mawoung 2006
-Table S1: Ngima Mawoung 2006
-Confirmation source: Ngima Mawoung 2006</t>
+    <t>Table 1: Ngima Mawoung 2006 [58]
+Table S1: Ngima Mawoung 2006[58]
+Confirmation source: Ngima Mawoung 2006[58]</t>
   </si>
   <si>
     <t>“Net hunting requires not only the participation of men, women, and forest animals, but also and above all “spirits” (minkugi) that protect the forest and the Bakola and provide them with game.” (Ngima Mawoung, 2006:57)
 “..married women also carry the spears of their husbands whenever they enter into the forest by themselves to gather wild food, or to hunt small animals like Gambian rats. Spear hunting is practiced individually, even on the spot when they encounter with a target.” (Ngima Mawoung, 2006:53)
-“It is common that two or three dogs are kept in a household, and they are used indiscriminately by men, women and children of the household. Dogs are particularly effective for tracing a wild animal in the forest, holding a larger animal at bay while the hunter aims at spearing it (bushpigs were once hunted in this way), or capturing smaller animals like porcupines and forest rats by themselves.” (Ngima Mawoung, 2006:53)
-“Hunting for larger game has become rare today.” (Ngima Mawoung, 2006:55)</t>
-  </si>
-  <si>
-    <t>Bay duiker (Cephalophus dorsalis, 18–23 kg), Blue duiker (Philantomba monticola, 3.5–9 kg), Peter's duiker (Cephalophus callipygus, 19 kg), yellow-backed duiker (Cephalophus silvicultor, 60-80 kg), giant pangolins (Smutsia gigantea, 40 kg), porcupine (Hystrix africae-australis, 2-3 kg), Pygmy antelope (Nesotragus batesi, 2-3 kg), Gambian rat (Cricetomys gambianus, 1-1.5 kg), golden cat (Felis aurata, 5.5-16 kg), civet (Viverra civetta, 7-20 kg), tree pangolin (Phataginus tricuspisI, 1.5 kg), giant pangolin (Smutsia gigantea 33 kg), Bushpig (Potamochoerus larvatus, 45-75 kg), leopard (Panthera pardus 23-31 kg), gorilla (Gorilla gorilla, 90-210 kg), chimpanzee (Pan troglodytes, 32- 60 kg) (Table 4:57)</t>
-  </si>
-  <si>
-    <t>Communal net hunting only. No explicit mention is made of large game hunting by women.</t>
+“It is common that two or three dogs are kept in a household, and they are used indiscriminately by men, women and children of the household. Dogs are particularly effective for tracing a wild animal in the forest, holding a larger animal at bay while the hunter aims at spearing it (bushpigs were once hunted in this way), or capturing smaller animals like porcupines and forest rats by themselves.” (Ngima Mawoung, 2006:53)</t>
+  </si>
+  <si>
+    <t>Bay duiker (Cephalophus dorsalis, 18–23 kg), Blue duiker (Philantomba monticola, 3.5–9 kg), Peter's duiker (Cephalophus callipygus, 19 kg), yellow-backed duiker (Cephalophus silvicultor, 60-80 kg), giant pangolins (Smutsia gigantea, 40 kg), porcupine (Hystrix africae-australis, 2-3 kg), Pygmy antelope (Nesotragus batesi, 2-3 kg), Gambian rat (Cricetomys gambianus, 1-1.5 kg), golden cat (Felis aurata, 5.5-16 kg), civet (Viverra civetta, 7-20 kg), tree pangolin (Phataginus tricuspisI, 1.5 kg), giant pangolin (Smutsia gigantea 33 kg), Bushpig (Potamochoerus larvatus, 45-75 kg), leopard (Panthera pardus 23-31 kg), gorilla (Gorilla gorilla, 90-210 kg), chimpanzee (Pan troglodytes, 32- 60 kg) (Ngima Mawoung, 2006: Table 4:57)</t>
+  </si>
+  <si>
+    <t>Women are said to “hunt small animals” either opportunistically or with their husband’s spears (‘frequently’). Bush pigs hunted on one occasion (‘rarely’).</t>
   </si>
   <si>
     <t>Bofi</t>
   </si>
   <si>
-    <t>Table 1: Lupo &amp; Schmitt (2002)
-Table S1: Lupo &amp; Schmitt (2002)
-Confirmation source: Lupo &amp; Schmitt (2002)</t>
+    <t>Table 1: Lupo &amp; Schmitt (2002)[59]
+Table S1: Lupo &amp; Schmitt (2002)[59]
+Confirmation source: Lupo &amp; Schmitt (2002) [59]</t>
   </si>
   <si>
     <t>“Bofi women and children fulfill a wide range of tasks on the net-hunt such as transporting, setting up, and taking down nets, acting as beaters, dispatching captured prey, and butchering and transporting carcasses back to residential sites.” Lupo &amp; Schmitt (2002: 155)
 “Although we did not observe this activity during the 1999/2000 field season, single Bofi women or groups of related women procure giant pouched rats unaided by men.” Lupo &amp; Schmitt (2002: 155)</t>
   </si>
   <si>
-    <t>Gambian pouched rat (Cricetomys gambianus, 1-1.4 kg), Small duikers (Cephalophussp., 3.5-19 kg), Porcupine (Atherurus sp., 2-3 kg), Civets, immature large duikers Lupo &amp; Schmitt (2002: 155)</t>
-  </si>
-  <si>
-    <t>Women assist with net hunting. They also collect rats individually. No evidence of big game hunting.</t>
+    <t>Gambian pouched rat (Cricetomys gambianus, 1-1.4 kg), small duikers (Cephalophus sp., 3.5-19 kg), immature large duikers, porcupine (Atherurus sp., 2-3 kg), and civets, (Lupo &amp; Schmitt 2002:155)</t>
+  </si>
+  <si>
+    <t>Women are not observed directly but said to hunt rats (‘rarely’). No mention of hunting big game (‘no evidence’).</t>
   </si>
   <si>
     <t>Ainu</t>
@@ -323,37 +329,37 @@
   </si>
   <si>
     <t>USS
-Table 1: Goodman et al. 1985; Brightman 1996
-Table S1: Goodman et al. 1985; Brightman 1996
-Confirmation source: Watanabe (1968) as cited in Goodman, 1985</t>
+Table 1: Goodman et al. 1985[6]; Brightman 1996[33]
+Table S1: Goodman et al. 1985[6]; Brightman 1996[33]
+Confirmation source: Watanabe (1968)[60] as cited in Goodman, 1985[6]</t>
   </si>
   <si>
     <t>“Ainu women were occasionally observed to hunt large game using rope and dogs, (Watanabe, 1968) and R. Gould (personal communication) observed women hunting with dogs among Western Australian Desert Aborigines.” Watanabe (1968:74) as cited in Goodman et al. (1985:1201)
 “Ainu women hunted deer with clubs, ropes, and dogs” Brightman (1996:705) likely citing Watanabe (1968:74)</t>
   </si>
   <si>
-    <t>Deer (Cervus nippon, ~42 kg)</t>
-  </si>
-  <si>
-    <t>Opportunistic hunting of medium sized game.</t>
+    <t>Deer (Cervus nippon, 40-70 kg) Brightman (1996:705)</t>
+  </si>
+  <si>
+    <t>Women are said to ‘occasionally’ hunt large game (“sometimes”). Since the deer hunted spanned both size categories, both coded.</t>
   </si>
   <si>
     <t>Batek De'</t>
   </si>
   <si>
-    <t>Table 1: Endicott (1984)
-Table S1: Endicott (1984)
-Confirmation source: Endicott (1984)</t>
+    <t>Table 1: Endicott (1984)[37]
+Table S1: Endicott (1984)[37]
+Confirmation source: Endicott (1984)[37]</t>
   </si>
   <si>
     <t>“Hunting is done mainly by men, either alone or in small groups.” Endicott (1984:35)
 “Bamboo rats (Rhizomys sumatrensis), which reach six pounds in weight, are a frequent source of meat. They live beneath clumps of bamboo and are obtained with digging sticks, by women as well as by men.” Endicott (1984:35)</t>
   </si>
   <si>
-    <t>Bamboo rats (Rhizomys sumatrensis, 2.5 kg)</t>
-  </si>
-  <si>
-    <t>Small rodents are frequently hunted by men and sometimes by women.</t>
+    <t>Bamboo rats (Rhizomys sumatrensis, 2.5 kg) Endicott (1984:35)</t>
+  </si>
+  <si>
+    <t>Although rats are a “frequent” source of meat, both women and men are said to hunt them (‘sometimes’). (‘No evidence’) of large-game hunting.</t>
   </si>
   <si>
     <t>Jahai</t>
@@ -361,34 +367,34 @@
   <si>
     <t>Table 1: Van der Sluys 1996
 Table S1: No ref
-Confirmation source: Van der Sluys 1996</t>
-  </si>
-  <si>
-    <t>“It is not allowed for women to hunt.” Van der Sluys 1996:70</t>
-  </si>
-  <si>
-    <t>Women are said to not hunt.</t>
+Confirmation source: Van der Sluys 1996[34]</t>
+  </si>
+  <si>
+    <t>“It is not allowed for women to hunt.” Van der Sluys (1996:70)</t>
+  </si>
+  <si>
+    <t>Women are not allowed to hunt (‘never’ for both categories).</t>
   </si>
   <si>
     <t>Tamang</t>
   </si>
   <si>
-    <t>Table 1: Panter-Brick (1989)
+    <t>Table 1: Panter-Brick (1989)[61]
 Table S1: No ref
 Confirmation source: None</t>
   </si>
   <si>
-    <t>No mention of hunting in Panter-Brick (1989).</t>
-  </si>
-  <si>
-    <t>No mention of hunting activity.</t>
+    <t>No mention of hunting in Panter-Brick (1989)</t>
+  </si>
+  <si>
+    <t>No mention of hunting activity (‘no evidence’).</t>
   </si>
   <si>
     <t>Maniq</t>
   </si>
   <si>
-    <t>Table 1: Lukas 2004
-Table S1: Goodman et al. 1985; Brightman 1996
+    <t>Table 1: Lukas 2004[62]
+Table S1: Goodman et al. 1985[6]; Brightman 1996[33]
 Confirmation source: Lukas 2004</t>
   </si>
   <si>
@@ -396,19 +402,19 @@
 Goodman et al. (1985) and Brightman (1996) have no mention of the Maniq.</t>
   </si>
   <si>
-    <t>Not specified.</t>
-  </si>
-  <si>
-    <t>Women are said to collect small animals. Otherwise, only men are said to hunt with a blow pipe.</t>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>No mention of frequency but habitual behavior indicated for small-game collection (‘frequently’). No evidence of large-game hunting.</t>
   </si>
   <si>
     <t>Agta</t>
   </si>
   <si>
-    <t>Anderson et al. 2023 use an undisclosed secondary source 
-Table 1: Goodman, 1985
-Table S1: Goodman, 1985
-Confirmation source: Estioko-Griffin and Griffin (1975, 1981) as cited in Goodman (1985)</t>
+    <t>USS 
+Table 1: Goodman, 1985[6]
+Table S1: Goodman, 1985[6]
+Confirmation source: Estioko-Griffin and Griffin (1985 , 1981[63,64]) as cited in Goodman (1985)[6]</t>
   </si>
   <si>
     <t>“More recently, Estioko-Griffin and Griffin (1975, 1981) studying the Agta of northeastern Luzon, and Cagayan provinces in the Philippines, have recorded extensive wild pig and deer hunting on the part of Agta women.” (Goodman, 1985: 1201)</t>
@@ -417,132 +423,135 @@
     <t>No mention of actual species hunted. Likely wild pig (Sus cebifrons, 190 kg), deer (Rusa marianna, 49 kg), and monkey (Macaca fascicularis philippensis, 4-8 kg) (Estioko-Griffin and Griffin, 1981; Griffin, 2007)</t>
   </si>
   <si>
-    <t>A canonical case of female hunters</t>
-  </si>
-  <si>
     <t>Yes, Same group as Ayta</t>
   </si>
   <si>
+    <t>Women participate in “extensive wild pig and deer hunting” (‘frequently’). Inferred prey range between small and large so coded for both.</t>
+  </si>
+  <si>
     <t>Ayta</t>
   </si>
   <si>
     <t>USS
-Table 1: Goodman, 1985
-Table S1: Goodman et al. 1985; Brightman 1996
-Confirmation source: Fox (1952) as cited by Goodman (1985)</t>
+Table 1: Goodman, 1985[6]
+Table S1: Goodman et al. 1985[6]; Brightman 1996[33]
+Confirmation source: Fox (1952)[65] as cited by Goodman et al. (1985)[6]</t>
   </si>
   <si>
     <t>“In 1952, Fox reported skillful women bow and arrow hunters among the Pinatubo Negritos of the Zambales mountains of western Luzon.” (Goodman, 1985: 1201)</t>
   </si>
   <si>
-    <t>A canonical case of female hunters.</t>
-  </si>
-  <si>
     <t>Yes, same group as Agta</t>
   </si>
   <si>
+    <t>Women participate in “skillful” bow and arrow hunting (‘frequently’). Inferred prey range between small and large so coded for both.</t>
+  </si>
+  <si>
     <t>Punan</t>
   </si>
   <si>
     <t>USS 
-Table 1: Ryes-García &amp; Pyhala 2017
+Table 1: Reyes-García &amp; Pyhala 2017[66]
 Table S1: No ref
-Confirmation source: None.</t>
-  </si>
-  <si>
-    <t>Gueze &amp; Napitupulu (2017) in Ryes-García &amp; Pyhala (2017) discusses hunting but does not specify women are involved in it.</t>
+Confirmation source: Gueze &amp; Napitupulu (2017) in Ryes-García &amp; Pyhala (2017) discuss hunting but do not specify whether women are involved in it.</t>
+  </si>
+  <si>
+    <t>No specific mention of women hunting (‘no evidence’).</t>
   </si>
   <si>
     <t>Ganij</t>
   </si>
   <si>
-    <t>Table 1: Hewlett (1996)
-Table S1: Biesele, 1993
-Confirmation source: None.</t>
-  </si>
-  <si>
-    <t>In Table 1, the authors reference Hewlett (1996), which has only one reference to the Ganij in a paragraph that is about breastfeeding. We were unable to locate any mention of women’s hunting. In Table S1 Biesele (1993) is referenced which does not contain explicit mention of the Ganij.</t>
-  </si>
-  <si>
-    <t>No evidence of women hunting.</t>
+    <t>Table 1: Hewlett (1996)[67]
+Table S1: Biesele, 1993[68]
+Confirmation source: None</t>
+  </si>
+  <si>
+    <t>In Table 1, the authors reference Hewlett (1996), which has only one reference to the Ganij in a paragraph about breastfeeding. No mention of women’s hunting found. In Table S1 Biesele (1993) is referenced which does not contain explicit mention of the Ganij.</t>
+  </si>
+  <si>
+    <t>No mention of hunting (‘no evidence’).</t>
   </si>
   <si>
     <t>Wopkaimin</t>
   </si>
   <si>
-    <t>Table 1: Hyndman (1984)
-Table S1: Hyndman (1984)
-Confirmation source: Hyndman (1984)</t>
+    <t>Table 1: Hyndman (1984)[69]
+Table S1: Hyndman (1984)[69]
+Confirmation source: Hyndman (1984)[69]</t>
   </si>
   <si>
     <t>HH</t>
   </si>
   <si>
-    <t>Table 1 (Hyndman 1984, p. 294)
+    <t>Women said to be involved in hunting ‘game mammals’ in Table 1 (Hyndman 1984, p. 294)
 “Frogs, fish, lizards, snakes and tadpoles (Table 3) are collected by women and children.” (Hyndman 1984, p. 297)</t>
   </si>
   <si>
-    <t>Naked-Backed Bat (Dobsonia moluccensis, &lt;1 kg), Coppery Ringtail (Pseudocherius cupreus, 1.3-2.2 kg), Silky Phalanger (Phalanger vestitus, 1.8 kg) (Hyndman 1984, p. 305)</t>
-  </si>
-  <si>
-    <t>Women stalk, ambush, and trap some small game.</t>
+    <t>Naked-Backed Bat (Dobsonia moluccensis, &lt;1 kg), Coppery Ringtail (Pseudocherius cupreus, 1.3-2.2 kg), Silky Phalanger (Phalanger vestitus, 1.8 kg), game mammals (Hyndman 1984:305)</t>
+  </si>
+  <si>
+    <t>Women involved in hunting (‘frequently’). Only game listed are small.</t>
   </si>
   <si>
     <t>Batak</t>
   </si>
   <si>
-    <t>Table 1: Goodall, 1971
-Table S1: Brightman 1996
-Confirmation source: Brightman (1996)</t>
+    <t>Table 1: Goodale, 1971[70]
+Table S1: Brightman 1996[33]
+Confirmation source: Brightman (1996)[33]; Goodale, 1971[70] has no mention of the Batak 
+Batak in Goodale (1971). Brightman (1996) states women hunt rats with sticks but do not cite a source for this information or say how often.</t>
   </si>
   <si>
     <t>“Batak women hunted cane rats with digging sticks.” (Brightman 1996, p. 705)</t>
   </si>
   <si>
-    <t>Rat (&lt; 1kg)</t>
-  </si>
-  <si>
-    <t>Batak in Goodall (1971). Brightman (1996) states women hunt rats with sticks but do not cite a source for this information or say how often.</t>
+    <t>Rat (&lt; 1kg) (Brightman 1996, p. 705)</t>
+  </si>
+  <si>
+    <t>Women are authoritatively declared to to hunt rats (‘frequently’). No mention of hunting larger game (‘no evidence’).</t>
   </si>
   <si>
     <t>Adnjamatana</t>
   </si>
   <si>
-    <t>Table 1: Mountford &amp; Harvey 1941
-Table S1: Mountford &amp; Harvey 1941
-Confirmation source: Mountford &amp; Harvey 1941</t>
+    <t>Table 1: Mountford &amp; Harvey 1941[71]
+Table S1: Mountford &amp; Harvey 1941[71]
+Confirmation source: Mountford &amp; Harvey 1941[71]</t>
   </si>
   <si>
     <t>“...women of the tribe also did a large part of the hunting and catching of small game” (Mountford &amp; Harvey 1941, p. 155)</t>
   </si>
   <si>
-    <t>Women hunted small game</t>
+    <t>Women are said to be “large” contributors of hunting small game (‘frequently’). No mention of large game (‘no evidence’).</t>
   </si>
   <si>
     <t>Alyawara</t>
   </si>
   <si>
-    <t>Table 1: Devitt (1988)
-Table S1: Devitt (1988) 
-Confirmation source: Devitt (1989)</t>
-  </si>
-  <si>
-    <t>“...women assisted in kangaroo hunts, although they rarely captured them.” (Devitt, 1989, p. 178)
-“Glory Ngale, carrying her baby daughter in the lengarre, walked several meters ahead of me as she searched for animal tracks on the sandy ground… The other two women arrived out of breath, and while I stood back (with Polly) holding the child, Glory directed Emily to a position behind the lizard. She moved in closer, finally clubbing the animal heavily with the branch.” (Devitt, 1989, p. 176)</t>
+    <t>Table 1: Devitt (1989)[72]
+Table S1: Devitt (1989)[72] 
+Confirmation source: Devitt (1989)[72]</t>
+  </si>
+  <si>
+    <t>“...women assisted in kangaroo hunts, although they rarely captured them.” (Devitt, 1989:178)
+“Lizards were the animals most frequently taken by women. Of these, the goanna and perenti were preferred for both their meat and the fat they carried in good season”(Devitt, 1989:191)
+“...yet echidna were regularly hunted.” (Devitt, 1989:197)</t>
   </si>
   <si>
     <t>Goanna (Varanus gouldi, 6 kg), Bearded Dragon (Amphibolurus barbatus, 4 kg), Echidna (Tachyglossus sp., 4 kg), Perenti (Varanus giganteus, up to 20 kg), Blue Tongue lizard (Tiliqua scincoides, 1 kg), Kangaroo (Osphranter rufus, 18-40 kg) (Devitt, 1989, p. 98)</t>
   </si>
   <si>
-    <t>Women rarely hunted big game but hunted small game while out gathering.</t>
+    <t>Women “rarely” hunted big game (‘rarely’) but hunted lizards most “frequently” (‘frequently’).</t>
   </si>
   <si>
     <t>Gunwinygu [sic]</t>
   </si>
   <si>
-    <t>Table 1: Gunwinggu 2015
+    <t>Table 1: Gunwinggu 2015[73]
 Table S1: No ref
-Confirmation source: None</t>
+Confirmation source: None
+Anderson et al. (2023) reference the following webpage: https://dice.missouri.edu/assets/docs/australia/Gunwinggu.pdf</t>
   </si>
   <si>
     <t>Gunwinggu 2015 is not a published article but rather a website that does not mention women hunting.</t>
@@ -551,9 +560,9 @@
     <t>Kaiadilt</t>
   </si>
   <si>
-    <t>Table 1: Memmott et al. 2008
+    <t>Table 1: Memmott et al. 2008[74]
 Table S1: No ref
-Confirmation source: Memmott et al. 2008</t>
+Confirmation source: Memmott et al. 2008[74]</t>
   </si>
   <si>
     <t>F</t>
@@ -562,69 +571,82 @@
     <t>“In the most advantageous conditions, numerous fish were said to be left stranded on the floor of the trap when the water had completely run out. They were easily collected by hand (by men or women) or with a pronged fishing spear (by men), and carried ashore in bark containers or small hand-nets (figure 4.6). Dugong and turtle could be stranded in the same way but this was more likely during the biggest tides when the tops of the walls were covered with a substantial height of water” (Memmott et al. 2008, p. 56).</t>
   </si>
   <si>
-    <t>Not specified but likely northern snake-necked turtle (Chelodina rugosa, 5 kg), Krefft’s river turtle (Emydura macquarii krefftii, 5 kg), green turtle (Chelonia mydas, 160 kg), and dugong (dugong dugong, 270 kg)</t>
-  </si>
-  <si>
-    <t>Memmott et al. (2008) focused on fishing techniques and the trapping of fish, dugong, and turtle. The latter two prey types would, in fact, be quite large and perhaps better classified as large game. However, it was not explicitly noted that women were participating in the hunting nor how frequently.</t>
+    <t>Not specified but likely northern snake-necked turtle (Chelodina rugosa, 5 kg), Krefft’s river turtle (Emydura macquarii krefftii, 5 kg), green turtle (Chelonia mydas, 160 kg), and dugong (dugong dugong, 270 kg) (Memmott et al. 2008, p. 56).</t>
+  </si>
+  <si>
+    <t>Women collect prey by hand, indicating relatively small size, in the ‘most advantageous conditions’ (‘rarely’). Largest game were captured in even more restricted circumstances (‘rarely’).</t>
   </si>
   <si>
     <t>Karajarri</t>
   </si>
   <si>
     <t>USS
-Table 1: Willing 2014
+Table 1: Willing 2014[75]
 Table S1: No ref
-Confirmation source: Willing 2014 and Smith (1997:85) as cited by Willing 2014: 20</t>
-  </si>
-  <si>
-    <t>“According to Smith (1997, p.85) there are significant gender based differences in Karajarri customary fishing practise. Typically men target larger fish, while women focus on marine foraging and catching smaller fish” (Willing 2014, p. 20).
-“Women especially continue to collect shellfish and crabs” (Willing 2014, p. 20).
-“While some women and girls use these fishing spears, they are more commonly made and owned by men and teenage boys” (Willing 2014, p. 22).</t>
-  </si>
-  <si>
-    <t>Shellfish, crabs</t>
-  </si>
-  <si>
-    <t>Women gather shellfish and crabs. No mention of hunting on land.</t>
+Confirmation source: Willing 2014 and Smith (1997:85)[75,76] as cited by Willing 2014: 20 [75]</t>
+  </si>
+  <si>
+    <t>“According to Smith (1997:85) there are significant gender based differences in Karajarri customary fishing practise. Typically men target larger fish, while women focus on marine foraging and catching smaller fish” (Willing 2014:20).
+“Women especially continue to collect shellfish and crabs” (Willing 2014:20).
+“While some women and girls use these fishing spears, they are more commonly made and owned by men and teenage boys” (Willing 2014:22).</t>
+  </si>
+  <si>
+    <t>Shellfish, crabs (Willing 2014:20)</t>
+  </si>
+  <si>
+    <t>Women are said to be involved in fishing but no mention of their involvement in hunting (‘no evidence’).</t>
   </si>
   <si>
     <t>Kaurareg</t>
   </si>
   <si>
-    <t>Table 1: Boore 2004; Southon &amp; Elders, 2014
-Table S1: Boore 2004; Southon &amp; Elders, 2014
-Confirmation source: Southon &amp; Elders (2014)</t>
+    <t>Table 1: Boore 2004[77]; Southon &amp; Elders, 2014[78]
+Table S1: Boore 2004[77]; Southon &amp; Elders, 2014[78]
+Confirmation source: Southon &amp; Elders (2014)[78]</t>
   </si>
   <si>
     <t>Not explicitly noted that women were participating in the hunting.</t>
   </si>
   <si>
+    <t>Not explicitly noted that women were participating in the hunting (‘no evidence’).</t>
+  </si>
+  <si>
     <t>Lardil</t>
   </si>
   <si>
-    <t>Table 1: Memmott et al. 2008; Lardil 2015
+    <t>Table 1: Memmott et al. 2008[74]; Lardil 2015[79]
 Table S1: Link that leads to an error page.
-Confirmation source: Memmott et al. (2008)</t>
-  </si>
-  <si>
-    <t>Memmott et al. (2008) focused on fishing techniques and the trapping of fish, dugong, and turtle. The latter two prey types would, in fact, be quite large and perhaps better classified as large game. However, it was not explicitly noted that women were participating in the hunting.</t>
+Confirmation source: Memmott et al. (2008)[74]
+Anderson et al. (2023) reference the following webpage: https://dice.missouri.edu/assets/docs/australia/Lardil.pdf</t>
+  </si>
+  <si>
+    <t>“In the most advantageous conditions, numerous fish were said to be left stranded on the floor of the trap when the water had completely run out. They were easily collected by hand (by men or women) or with a pronged fishing spear (by men), and carried ashore in bark containers or small hand-nets (figure 4.6). Dugong and turtle could be stranded in the same way but this was more likely during the biggest tides when the tops of the walls were covered with a substantial height of water” (Memmott et al. 2008:56).</t>
+  </si>
+  <si>
+    <t>Not specified but likely northern snake-necked turtle (Chelodina rugosa, 5 kg), Krefft’s river turtle (Emydura macquarii krefftii, 5 kg), green turtle (Chelonia mydas, 160 kg), and dugong (dugong dugong, 270 kg) (Memmott et al. 2008:56).</t>
   </si>
   <si>
     <t>Larrakia</t>
   </si>
   <si>
-    <t>Table 1: Day, 2012
-Table S1: Day, 2012
-Confirmation source:</t>
+    <t>Table 1: Day, 2012[80]
+Table S1: Day, 2012[80]
+Confirmation source: 
+Day, 2012[80]
+Anderson et al. (2023) reference the following webpage: https://www.drbilldayanthropologist.com/resources/Longgrass%20people%20of%20Darwin%202012.pdf</t>
+  </si>
+  <si>
+    <t>Not explicitly noted that women were participating in the hunting (‘no evidence’)</t>
   </si>
   <si>
     <t>Tasmania</t>
   </si>
   <si>
     <t>USS 
-Table 1: Tindale 1974
+Table 1: Tindale 1974[81]
 Table S1: No ref
-Confirmation source: Robinson (1829 &amp; 1831) and Hiatt (1968) as cited by Tindale (1974)</t>
+Confirmation source: Robinson (1829 &amp; 1831)[82] and Hiatt (1968)[83] as cited by Tindale (1974)[81]
+Tindale (1974)[81] cites Robinson (1829 &amp; 1831)[82] and Hiatt (1968, which were unlocatable</t>
   </si>
   <si>
     <t>“There was a marked division of labor in Tasmania, the women gathering shellfish and vegetable food, hunting possums and other small animals, as well as carrying out a wide range of household chores; the men manufacturing weapons, hunting, and fighting (Robinson, 28 September 1829:79, 26 November 1831:531; Hiatt 1968:214)” (Tindale 1974:324).</t>
@@ -633,77 +655,81 @@
     <t>Shellfish, possums (likely Trichosurus vulpecula, 1.2-4.5 kg)</t>
   </si>
   <si>
-    <t>Tindale (1974) cites Robinson which was unlocatable and Hiatt (1968) in which I was unable to find any evidence pertaining to women’s hunting.</t>
+    <t>Women are authoritatively declared to hunt small game (‘frequently’). There is said to be a “marked division of labor” and involvement with hunting big game is not listed for women (‘never’).</t>
   </si>
   <si>
     <t>Tiwi</t>
   </si>
   <si>
-    <t>Table 1: Hart et al. (1988)
-Table S1: Hart et al. (1988)
-Confirmation source: Hart et al. (1988)</t>
+    <t>Table 1: Hart et al. (1988)[84]
+Table S1: Hart et al. (1988)[84]
+Confirmation source: Hart et al. (1988)[84]</t>
   </si>
   <si>
     <t>“To complete the list of occasions that called for joint activity by the members of several households, we must include the joint kangaroo hunt. This activity was very localized and very spasmodic, occurring only when and where conditions were right and somebody felt sufficiently energetic to organize it.” Hart et al. (1988:46)</t>
   </si>
   <si>
-    <t>Wallaby and Kangaroo (Macropus rufa, 30-50 kg)</t>
-  </si>
-  <si>
-    <t>Women were shown to participate in joint wallaby and kangaroo hunts.</t>
+    <t>Wallaby and Kangaroo (Macropus rufa, 30-50 kg) Hart et al. (1988:46)</t>
+  </si>
+  <si>
+    <t>No mention of women hunting small game (‘no evidence’). Women participate in joint wallaby and kangaroo hunts “only when and where conditions were right” (‘rarely’).</t>
   </si>
   <si>
     <t>Worrorra</t>
   </si>
   <si>
-    <t>Table 1: Clendon (2014)
-Table S1: Clendon (2014)
-Confirmation source: Clendon (2014)</t>
-  </si>
-  <si>
-    <t>“While women dug for tubers and collected honey and small game, men hunted kangaroos.” (p. 3)</t>
-  </si>
-  <si>
-    <t>Not specified. Likely various kinds of goannas and marsupials, such as bandicoots and possums (p. 3)</t>
-  </si>
-  <si>
-    <t>Women hunted small game while foraging.</t>
+    <t>Table 1: Clendon (2014)[85]
+Table S1: Clendon (2014)[85]
+Confirmation source: Clendon (2014)[85]</t>
+  </si>
+  <si>
+    <t>“While women dug for tubers and collected honey and small game, men hunted kangaroos.” (Clendon 2014:3)</t>
+  </si>
+  <si>
+    <t>Not specified. Likely “...various kinds of goannas (Varanus giganteus, 15kg) and marsupials, such as bandicoots (Isoodon macrourus, &lt;3 kg) and possums (Trichosurus vulpecula, 1.2 - 4.5 kg)…”(Clendon 2014:3, 34, 79)</t>
+  </si>
+  <si>
+    <t>Women authoritatively declared to hunte small game (‘frequently’), with no evidence of large-game hunting (‘no evidence’).</t>
   </si>
   <si>
     <t>Walbiri</t>
   </si>
   <si>
-    <t>Table 1: Tonkinson 1978
-Table S1: Tonkinson 1978
-Confirmation source: Tonkinson (1978)</t>
+    <t>Table 1: Tonkinson 1978[43]
+Table S1: Tonkinson 1978[43]
+Confirmation source: Tonkinson (1978[43])</t>
   </si>
   <si>
     <t>“...women and children collect plant foods and smaller game that make up the bulk of the diet.” (Tonkinson 1978:34)</t>
   </si>
   <si>
-    <t>Women’s game not specified but could include several kinds of lizards, small marsupials (Tonkinson 1978:24)</t>
-  </si>
-  <si>
-    <t>Women hunted small game while foraging</t>
+    <t>Women’s game not specified but could include several kinds of lizards and small mammals (Tonkinson 1978:24)</t>
+  </si>
+  <si>
+    <t>Women are authoritatively declared to to hunt small game that comprises the bulk of the diet (‘frequently’). No mention of involvement in hunting large game (‘no evidence’).</t>
   </si>
   <si>
     <t>Torres Strait Islanders</t>
   </si>
   <si>
     <t>Table 1: No ref
-Table S1: Bird (2007)
-Confirmation source: Bird (2007)</t>
-  </si>
-  <si>
-    <t>The reference, Bird (2007), discussed women’s focus on shellfish collecting and reliable types of fishing. It is not clear why this case of fishing warranted inclusion but others did not.</t>
+Table S1: Bird (2007)[86]
+Confirmation source: Bird (2007)[86]</t>
+  </si>
+  <si>
+    <t>“Women’s subsistence effort focuses on shellfish collecting and reliable types of fishing, whereas men turn toward pelagic fish and hunting turtles or marine mammals.” (Bird 2007, p. 448)
+“Hunted turtle are shared more widely than collected turtle, and women often collect but never hunt. The sex biases in turtle acquisition are thus consistent with the patterns in ﬁshing described here.” (Bird 2007, p. 449)</t>
+  </si>
+  <si>
+    <t>Women are said to be involved in fishing but not involved in hunting turtles (‘never). No mention of involvement in hunting large game (‘no evidence’).</t>
   </si>
   <si>
     <t>Australian Mardudjara</t>
   </si>
   <si>
-    <t>Table 1: O'Dea, 1991
-Table S1: O'Dea 1991
-Confirmation source: O'Dea (1991)</t>
+    <t>Table 1: O'Dea, 1991[87]
+Table S1: O'Dea 1991[87]
+Confirmation source: O'Dea (1991)[87]</t>
   </si>
   <si>
     <t>“In general, women provided the subsistence diet, gathering plant foods, honey, eggs, small mammals, reptiles, fish, shellfish, crustaceans and insects. They usually hunted in groups, which allowed them to share child-minding and have an enjoyable and sociable time.” (O'Dea 1991:74)</t>
@@ -715,42 +741,46 @@
     <t>Yes, same group as the Australian Martu</t>
   </si>
   <si>
+    <t>Women hunted small game to provide key subsistence (‘frequently’). No evidence of large-game hunting.</t>
+  </si>
+  <si>
     <t>Australian Martu</t>
   </si>
   <si>
-    <t>Table 1: Bird &amp; Bird, 2008
-Table S1: Bird &amp; Bird, 2008
-Confirmation source: Bird &amp; Bird, 2008</t>
-  </si>
-  <si>
-    <t>“Women will occasionally hunt bustard and kangaroo but prefer to search for smaller prey, particularly cat, goanna, and snake, which are dug from burrows in the winter after burning large areas of overgrown spinifex grass and in the summer are tracked and chased” (Bird &amp; Bird, 2008:657).</t>
-  </si>
-  <si>
-    <t>Kangaroo (Macropus rufa, 30-50 kg), goanna (Varanus sp. ~6 kg), perentie (Varanus giganteus, max 15 kg), yellow monitor lizard (Varanus panoptes, ~7kg), feral cats</t>
-  </si>
-  <si>
-    <t>Women hunted small game frequently but rarely hunt large game.</t>
+    <t>Table 1: Bird &amp; Bird, 2008[88]
+Table S1: Bird &amp; Bird, 2008[88]
+Confirmation source: Bird &amp; Bird, 2008[88]</t>
+  </si>
+  <si>
+    <t>“Women will occasionally hunt bustard and kangaroo but prefer to search for smaller prey, particularly cat, goanna, and snake, which are dug from burrows in the winter after burning large areas of overgrown spinifex grass and in the summer are tracked and chased” (Bird &amp; Bird, 2008:657).
+Bird and Bird (2008), Figure 1: women spend 72% of their foraging time hunting goanna (iguana) and 7% of their foraging time hunting bustard and kangaroo.</t>
+  </si>
+  <si>
+    <t>Kangaroo (Macropus rufa, 30-50 kg), goanna (Varanus sp. ~6 kg), perentie (Varanus giganteus, max 15 kg), yellow monitor lizard (Varanus panoptes, ~7kg), feral cats (Bird &amp; Bird, 2008:657).</t>
   </si>
   <si>
     <t>Yes, same group as the Australian Mardudjara</t>
   </si>
   <si>
+    <t>Women hunted small game frequently and “occasionally” hunt large game, however the actual amount acquired is low (‘rarely’)</t>
+  </si>
+  <si>
     <t>Iñupiaq</t>
   </si>
   <si>
-    <t>Table 1: Bodenhorn 1990
-Table S1: Bodenhorn 1990
-Confirmation source: Bodenhorn (1990)</t>
+    <t>Table 1: Bodenhorn 1990[89]
+Table S1: Bodenhorn 1990[89]
+Confirmation source: Bodenhorn (1990)[89]</t>
   </si>
   <si>
     <t>“Wives ritually attract the animals and are thus classed as hunters by Iñupiaq men” (Bodenhorn 1990:58).
 “Women fish, hunt occasionally, help to butcher, preserve and prepare the food, tan the skins, sew (both clothing and the skin covering of the whaling boats) and take care of the children” (Bodenhorn 1990:60).</t>
   </si>
   <si>
-    <t>Bowhead whale (Balaena mysticetus, 60-80 tons), beluga whale (Delphinapterus leucas, 700-1600 kg), seal (Phoca hispida, 55-168 kg), walrus (Odobenus rosmarus, 1000 kg), and waterfowl, as well as inland fish and caribou (Rangifer tarandus, 80-200 kg)</t>
-  </si>
-  <si>
-    <t>Women contribute to hunting success in the context of husband-wife collaborative teams, largely through ritualistic (attracting animals) and logistical (sewing, butchering, sharing) support. Women only rarely participate actively in hunting, and much less so than their husbands.</t>
+    <t>Bowhead whale (Balaena mysticetus, 60-80 tons), beluga whale (Delphinapterus leucas, 700-1600 kg), seal (Phoca hispida, 55-168 kg), walrus (Odobenus rosmarus, 1000 kg), and waterfowl, as well as inland fish and caribou (Rangifer tarandus, 80-200 kg) (Bodenhorn 1990:58)</t>
+  </si>
+  <si>
+    <t>Women contribute to hunting ritualistically but rarely involved in direct hunting (‘rarely’).</t>
   </si>
   <si>
     <t>Belcher Island Eskimo</t>
@@ -759,107 +789,109 @@
     <t>hunting, fishing</t>
   </si>
   <si>
-    <t>Table 1: Guemple 1986; Brightman 1996
-Table S1: Guemple 1986; Brightman 1996
-Confirmation source: Guemple 1986</t>
+    <t>Table 1: Guemple 1986[90]; Brightman 1996[33]
+Table S1: Guemple 1986[90]; Brightman 1996[33]
+Confirmation source: Guemple 1986[90]</t>
   </si>
   <si>
     <t>“Island women were traditionally excluded from hunting the major game species, though they commonly fished and hunted ducks, geese, and other small animals either alone or in the company of male hunters while traveling.” (Guemple 1986:13)
-“A few women had established reputations for casual shoreline seal hunting and even spring ice hunting with rifles.” (Guemple 1986:13)</t>
-  </si>
-  <si>
-    <t>[Eider] Duck (Somateria mollissima, 2.1 kg), [Canada] geese (Branta canadensis, 3.2-6.5 kg), seal (Phoca hispida, 55-168 kg), other small animals</t>
-  </si>
-  <si>
-    <t>Women did not participate in large-game hunting and were more likely to tend to trap lines and small game up to the size of seal.</t>
+“A few women had established reputations for casual shoreline seal hunting and even spring ice hunting with rifles. (Guemple 1986:13)” as cited by Brightman (1986:692)</t>
+  </si>
+  <si>
+    <t>[Eider] Duck (Somateria mollissima, 2.1 kg), [Canada] geese (Branta canadensis, 3.2-6.5 kg), seal (Phoca hispida, 55-168 kg), other small animals (Guemple 1986:13)</t>
+  </si>
+  <si>
+    <t>Women “commonly” hunted small animals (‘frequently’) but are “excluded from hunting the major game species” except for a few exceptions (‘rarely’)</t>
   </si>
   <si>
     <t>Inuit</t>
   </si>
   <si>
-    <t>Table 1: Guemple 1986
-Table S1: Guemple 1986; Brightman 1996
-Confirmation source: Guemple (1986) as cited in Brightman (1996)</t>
+    <t>Table 1: Guemple 1986[90]
+Table S1: Guemple 1986[90]; Brightman 1996[33]
+Confirmation source: Guemple (1986) [90]as cited in Brightman (1996)[33]</t>
   </si>
   <si>
     <t>“Island women were traditionally excluded from hunting the major game species, though they commonly fished and hunted ducks, geese, and other small animals either alone or in the company of male hunters while traveling” (Guemple, 1986:13) 
 “…a few women had established reputations for casual shoreline seal hunting and even spring ice hunting with rifles.” (Guemple, 1986:13) 
-“In the 1920s some women were singlehandedly responsible for sustaining their entire households... These women routinely hunted seal and small game to provide for their families; and some even ran traplines of their own.” (Guemple, 1986:13)</t>
-  </si>
-  <si>
-    <t>[Eider] Duck (Somateria mollissima, 2.1 kg), [Canada] geese (Branta canadensis, 3.2-6.5 kg), seal (Phoca hispida, 55-168 kg)</t>
+“In the 1920s some women were singlehandedly responsible for sustaining their entire households during peak fox trapping years when all the males spent virtually all their time working trap lines. These women routinely hunted seal and small game to provide for their families; and some even ran traplines of their own.” (Guemple, 1986:13)</t>
+  </si>
+  <si>
+    <t>[Eider] Duck (Somateria mollissima, 2.1 kg), [Canada] geese (Branta canadensis, 3.2-6.5 kg), seal (Phoca hispida, 55-168 kg) (Guemple 1986:13)</t>
   </si>
   <si>
     <t>Kalaallit</t>
   </si>
   <si>
-    <t>Table 1: Issenman 1997
+    <t>Table 1: Issenman 1997[91]
 Table S1: No ref
-Confirmation source: Issenman (1997)</t>
+Confirmation source: Issenman (1997)[91]</t>
   </si>
   <si>
     <t>“Women and children help with the caribou hunt and with sealing and fishing. Indeed, some women engage in hunting with or without men.” (Issenman 1997:220)
 “...it is the woman who attracts the animals, sometimes by entreating the moon for good hunting, by butchering and sharing the meat so that the animal is pleased and returns to be hunted anew, and by sewing the skin with artistry as a tribute to the creature’s generosity in allowing itself to be killed.” (Issenman 1997:220)</t>
   </si>
   <si>
-    <t>Caribou (Rangifer tarandus, 80-200 kg), seal (Phoca hispida, 55-168 kg)</t>
-  </si>
-  <si>
-    <t>Women contribute to hunting success in the context of collective hunting, largely through ritualistic (attracting animals) and logistical (sewing, butchering, sharing) support.</t>
+    <t>Caribou (Rangifer tarandus, 80-200 kg), seal (Phoca hispida, 55-168 kg) (Issenman 1997:220)</t>
+  </si>
+  <si>
+    <t>No mention of women hunting small game (‘no evidence’) but “some” engaged in hunting without men (‘sometimes’). While women were shown to “help” with the caribou hunt and sealing, there is no mention of what type of help this was aside from mention of logistical tasks unrelated to hunting itself.</t>
   </si>
   <si>
     <t>Northern Ojibwa</t>
   </si>
   <si>
-    <t>Table 1: Landes 1938; Brightman 1996
+    <t>Table 1: Landes 1938; [45] Brightman 1996[33]
 Table S1: No ref
-Confirmation source: Landes (1938)</t>
+Confirmation source: Landes (1938)[45]</t>
   </si>
   <si>
     <t>“…how K's father trained her to hunt and trap like a man, and her grandmother taught her to tan, sew and cook like a woman” Landes (1938:16)
 “Thus for example, Northern Ojibwa men speak of women's inability to shoot rifle (Sieciechowicz n.d.) and an elderly Gwich'in (Subarctic Athapaskan) woman told me that women in the past did not hunt because they could not draw the large bows in use.” Brightman (1996:703)</t>
   </si>
   <si>
-    <t>White-tailed deer (Odocoileus virginianus, 68 kg)</t>
-  </si>
-  <si>
-    <t>Does not support the idea of habitual large-game hunting by women.</t>
+    <t>White-tailed deer (Odocoileus virginianus, 68 kg) (1938:169)</t>
+  </si>
+  <si>
+    <t>No mention of women hunting small game (‘no evidence’) and only one case of a girl being trained by her father to hunt and trap (‘rarely’).</t>
   </si>
   <si>
     <t>Missinippi Cree</t>
   </si>
   <si>
-    <t>Table 1: Brightman 1993; Brightman 1996
-Table S1: Brightman 1996
-Confirmation source: Brightman (1996) to an unpublished mansucript by that same author</t>
-  </si>
-  <si>
-    <t>“Similarly, a Missinippi Cree woman recalled hunting caribou with a rifle while carrying an infant in a cradleboard; she positioned the board in a tree while firing and then pulled the child on a toboggan when retrieving the game (Brightman nd).”</t>
-  </si>
-  <si>
-    <t>Caribou (Rangifer tarandus, 80-200 kg)</t>
-  </si>
-  <si>
-    <t>The relevant information appears to be from an undated (and apparently unpublished) manuscript by that author. The evolutionary implications of this case are weakened by the use of a rifle.</t>
+    <t>Table 1: Brightman 1993[92]; Brightman 1996[33]
+Table S1: Brightman 1996[33]
+Confirmation source: Brightman (1996)[33] to an unpublished mansucript by that same author</t>
+  </si>
+  <si>
+    <t>“Similarly, a Missinippi Cree woman recalled hunting caribou with a rifle while carrying an infant in a cradleboard; she positioned the board in a tree while firing and then pulled the child on a toboggan when retrieving the game (Brightman nd).” Brightman (1996:699)</t>
+  </si>
+  <si>
+    <t>Caribou (Rangifer tarandus, 80-200 kg) Brightman (1996:699)</t>
+  </si>
+  <si>
+    <t>No mention of women hunting small game (‘no evidence’). One case mentioned of a women hunting caribou with a rifle but the evolutionary implications of this case are weakened by the use of a rifle (‘rarely’).</t>
   </si>
   <si>
     <t>Central Eskimo</t>
   </si>
   <si>
     <t>USS
-Table 1: Boas, 1888
-Table S1: Boas 1888
-Confirmation source: Rae, J. (1850)(Rae, 1850) as cited in Boas (1888)</t>
-  </si>
-  <si>
-    <t>"Rae, in describing the method of hunting, states that the women at Repulse Bay are very skillful, and when they have no harpoon frequently use a small wooden club, with which they strike the seal on the nose, killing it." (Boas, 1888:485)
-“All the inhabitants of the settlements set out at once, men, women, and children, and occupy every seal hole over a large area. The men keep their harpoons ready to strike the animal when it comes up to blow, while the women and children are provided with sticks only…” (Boas, 1888:486)</t>
-  </si>
-  <si>
-    <t>Seal (Phoca hispida, 55-168 kg) and other sea mammals</t>
-  </si>
-  <si>
-    <t>This example suggests that within the context of group cooperation, women generally do not use harpoons but instead participate in large-game hunting by using small clubs to kill sizeable prey like seals.</t>
+Table 1: Boas, 1889[46]
+Table S1: Boas 1889[46]
+Confirmation source: Rae, J. (1850)[93] as cited in Boas (1889)[46]</t>
+  </si>
+  <si>
+    <t>"Rae, in describing the method of hunting, states that the women at Repulse Bay are very skillful, and when they have no harpoon frequently use a small wooden club, with which they strike the seal on the nose, killing it." (Boas, 1889:485)
+“All the inhabitants of the settlements set out at once, men, women, and children, and occupy every seal hole over a large area. The men keep their harpoons ready to strike the animal when it comes up to blow, while the women and children are provided with sticks only…” (Boas, 1889:486)
+"...meanwhile the women, who stay at home, are engaged in their domestic occupations, mending boots and making new clothing . . ." ((Boas, 1889)[1964]: 154)[46]. 
+"...the principal part of the man's work is to provide for his family by hunting, i.e., for his wife and children . . . . The woman has to do the household work, the sewing, and the cooking. She must look after the lamps, make and mend the tent and boat covers, prepare the skins, and bring up young dogs." (Boas, 1889)[1964]: 171-2)[46]</t>
+  </si>
+  <si>
+    <t>Seal (Phoca hispida, 55-168 kg) and other sea mammals (Boas, 1889:485)</t>
+  </si>
+  <si>
+    <t>No mention of women hunting small game (‘no evidence’).</t>
   </si>
   <si>
     <t>Rainy River Ojibwe</t>
@@ -867,210 +899,227 @@
   <si>
     <t>USS
 Table 1: Buffalohead, 1983
-Table S1: Buffalohead, 1983
-Confirmation source: Henry (1901) as cited in Buffalohead (1983)</t>
+Table S1: Buffalohead, 1983[94]
+Confirmation source: Henry (1901)[95] [original publication appears to be 1809] as cited in Buffalohead (1983)[94]</t>
   </si>
   <si>
     <t>“Thus, while an activity might be defined as male or female dominated, in actuality women and men worked side by side in mutually dependent roles. Even hunting, particularly the winter hunt, invariably included women because "women's work" was an essential part of it. Women built the lodges, spotted the game, butchered the meat; they processed the hides to be fashioned into clothing and footwear and the furs to be either trade items or robes” (Henry 1901 as cited in Buffalohead, 1983:238)</t>
   </si>
   <si>
-    <t>No Evidence</t>
-  </si>
-  <si>
-    <t>Women contribute to hunting success through logistical (sewing, spotting, butchering, sharing) support.</t>
+    <t>Women contribute to hunting success through logistical (sewing, spotting, butchering, sharing) support but no mention of hunting directly(‘no evidence’).</t>
   </si>
   <si>
     <t>Nootka</t>
   </si>
   <si>
     <t>USS
-Table 1: Morris 1995
-Table S1: Morris 1995
-Confirmation source: Collard and Contrucci (1988) as cited by Morris (1995)</t>
+Table 1: Morris 1995[96]
+Table S1: Morris 1995[96]
+Confirmation source: Collard and Contrucci (1989)[97] as cited by Morris (1995)[96]</t>
   </si>
   <si>
     <t>“Acknowledging this fact in discussing women's participation in whale hunting among the Nootka people of the North West Coast, Andree Collard suggests that this is not hunting but merely "the capture of an animal for economic survival" (1988: 15)” Collard and Contrucci 1988 as cited by Morris 1995:31</t>
   </si>
   <si>
-    <t>This passage seems to provide a rationale for the definition of hunting rather than serving as evidence of women actively participating in the hunt.</t>
+    <t>No mention of women hunting small or big game (‘no evidence’).</t>
   </si>
   <si>
     <t>Mescalero Apache</t>
   </si>
   <si>
-    <t>Table 1: Flannery, 1932; Brightman 1996
-Table S1: Brightman 1996
-Confirmation source: Flannery (1932) as cited in Brightman (1996)</t>
+    <t>Table 1: Flannery, 1932[98]; Brightman 1996[33]
+Table S1: Brightman 1996[33] and White (1985)[99]
+Confirmation source: Flannery (1932)[98] as cited in Brightman (1996)[33]</t>
+  </si>
+  <si>
+    <t>HG (equestrian)</t>
   </si>
   <si>
     <t>“Likewise eschewing arrows and guns, Mescalero Apa women hunted buffalo with ropes and axes (Flannery 1939:29)” Flannery 1939 as cited by Brightman 1996
 “Young married women might go hunting with their husbands, not merely to accompany them, but actually to take part in the chase. My informant on this point was such a shriveled-up, decrepit old woman that it was hard to believe that she was once active and skilled enough to rope a buffalo, wind the rope around a tree, and kill the animal with an axe. I was informed by others that this was not such an uncommon feat for a woman in former times…” Flannery (1932:29)</t>
   </si>
   <si>
-    <t>Buffalo (Bison bison, 300-550 kg)</t>
-  </si>
-  <si>
-    <t>The report aligns with existing knowledge that Native American hunting strategies historically included women's involvement in communal buffalo hunts.</t>
+    <t>Buffalo (Bison bison, 300-550 kg) Flannery (1932:29)</t>
+  </si>
+  <si>
+    <t>No mention of women hunting small game (‘no evidence’). Women “might” attend buffalo hunts and explicitly stated to “actually to take part in the chase” (‘sometimes’).</t>
   </si>
   <si>
     <t>Gosiute</t>
   </si>
   <si>
     <t>USS
-Table 1: Steward 1997
-Table S1: Steward 1997
-Confirmation source: Chamberlin (1911) as cited in Steward (1938); Egan (1917) as cited in Steward (1938)</t>
+Table 1: Steward 1997[101]
+Table S1: Steward 1997[101]
+Confirmation source: Chamberlin (1911) as cited in Steward (1938);[102] Egan (1917)[103] as cited in Steward (1938)[102]</t>
   </si>
   <si>
     <t>“Chamberlin (1911:28) has described great drives involving the whole "tribe" (probably principally Deep Creek) and even neighboring peoples and employing an unusual method.” Chamberlin (1911) as cited by Steward (1938:13)
-“Egan (pp. 245-246) also saw 8 or 10 women at Creek Hollow diverting water by means of little ditches into gopher holes... One woman got 25 to 30 within half an hour.” Egan (1917) as cited by Steward (1938:139)</t>
-  </si>
-  <si>
-    <t>Pocket gophers (Geomyidae sp., &lt;1 kg) ground squirrels (Citellus sp. &lt;1 kg), large white bellied mole (Scalopus aquaticus, &lt; 1 kg), antelope (Antilocapra americana, 40 kg) (Egan. 1917 p. 246; Chamberlin, 1911, pp. 335-336)</t>
-  </si>
-  <si>
-    <t>Women are shown to participate in collective drives of game and solo hunting of small mammals.</t>
+“Egan (pp. 245-246) also saw 8 or 10 women at Creek Hollow diverting water by means of little ditches into gopher holes... One woman got 25 to 30 within half an hour.” Egan (1917) as cited by Steward (1938:139)
+“Each village or cluster of villages was a band whose unity and independence was expressed in the habitual cooperation of all members in its own communal antelope, rabbit, and deer drives…” Steward (1938:50)</t>
+  </si>
+  <si>
+    <t>Pocket gophers (Geomyidae sp., &lt;1 kg) ground squirrels (Citellus sp. &lt;1 kg), large white bellied mole (Scalopus aquaticus, &lt; 1 kg), antelope (Antilocapra americana, 40 kg), White-tailed deer (Odocoileus virginianus, 68 kg), rabbits (Leporidae sp., 1.3-6 kg) (Egan. 1917:246; Chamberlin, 1911:335-336); Steward (1938:50)</t>
+  </si>
+  <si>
+    <t>“All members” participate in antelope, rabbit, and deer drives (‘frequently’)</t>
   </si>
   <si>
     <t>Maidu</t>
   </si>
   <si>
-    <t>Table 1: Faye, 1923
+    <t>Table 1: Faye, 1906[104] [cited as 1923 in Anderson et al. 2023]
 Table S1: No ref
-Confirmation source: Faye (1923)</t>
-  </si>
-  <si>
-    <t>The only mention of women concerning hunting practices was the use of women’s hair in the creation of snares.</t>
+Confirmation source: Faye (1906)[104]  [cited as 1923 in Anderson et al. 2023]</t>
+  </si>
+  <si>
+    <t>No mention of women hunting (‘no evidence’). The only mention of women concerning hunting practices was the use of women’s hair in the creation of snares.</t>
   </si>
   <si>
     <t>Mono Lake Northern Paiute</t>
   </si>
   <si>
-    <t>Table 1: Lubinski 1999
+    <t>Table 1: Lubinski 1999[105]
 Table S1: No ref
-Confirmation source:</t>
-  </si>
-  <si>
-    <t>Lubinski (1999) is cited but not evidence related to WH in Northern Paiute</t>
+Confirmation source: 
+Lubinski 1999[105]</t>
+  </si>
+  <si>
+    <t>“The Great Basin communal pronghorn drive might involve men only (Smith 1974:55; Fowler 1989:17-18), or men and women (Irving 1837:51; Fowler 1989:16), or men, women, and children (Egan 1917:239-240; Lowie 1924:305; Kelly 1932: 83-84; Steward 1941:219).”</t>
+  </si>
+  <si>
+    <t>Pronghorn (Antilocapra americana, 34-65 kg) (Egan 1917:239-240; Lowie 1924:305; Kelly 1932: 83-84; Steward 1941:219)</t>
+  </si>
+  <si>
+    <t>No mention of women hunting small game (‘no evidence’). Since men “might” participate in male-only game drives this implies whole tribe involvement was the norm (‘frequently’).</t>
   </si>
   <si>
     <t>Tolowa</t>
   </si>
   <si>
-    <t>Table 1: Collins, 2014
+    <t>Table 1: Collins, 2014[106]
 Table S1: No ref
-Confirmation source: Collins, 2014</t>
+Confirmation source: Collins, 2014[106]</t>
   </si>
   <si>
     <t>“Women gathered foodstuffs, while men fished and hunted.” (Collins, 2014)</t>
   </si>
   <si>
+    <t>No mention of women hunting (‘no evidence’).</t>
+  </si>
+  <si>
     <t>Tongva</t>
   </si>
   <si>
-    <t>Table 1: Williams 2003
-Table S1: Lahn (2006)
-Confirmation source: Lahn (2006)</t>
+    <t>Table 1: Williams 2003[107]
+Table S1: Lahn (2006)[108]
+Confirmation source: Lahn (2006)[108]</t>
   </si>
   <si>
     <t>“Though supplemented by men's sporadic efforts at spearfishing and turtle hunting, fishing is an established part of women's duties on Warraber, and given suitable weather and opportunity, a part of each day will generally be spent trying to catch fish. If necessary, small children are left with relatives to allow this to happen.” Lahn (2006:299)</t>
   </si>
   <si>
-    <t>The reference, Lahn (2006), discussed women’s focus on fishing. It is not clear why this case of fishing warranted inclusion but others did not.</t>
-  </si>
-  <si>
     <t>Basin-Plateau</t>
   </si>
   <si>
     <t>USS
-Table 1: Steward (1997)
-Table S1: White, 1970
-Confirmation source: multiple example sources cited by White (1970); Steward (1997)</t>
-  </si>
-  <si>
-    <t>“Men did all large-game hunting, manufactured chipped flint implements, digging sticks and rabbit-skin blankets, built houses, and assisted women in such tasks as hunting rodents, carrying woodand water, transporting seeds, and even gathering some materials for making pots, baskets, and metates.” (Steward, 1997:44)
+Table 1: Steward (1997)[101]
+Table S1: White, 1970[109]
+Confirmation source: multiple example sources cited by White (1970)[109]; Steward (1997)[101]</t>
+  </si>
+  <si>
+    <t>“Men did all large-game hunting, manufactured chipped flint implements, digging sticks and rabbit-skin blankets, built houses, and assisted women in such tasks as hunting rodents, carrying wood and water, transporting seeds, and even gathering some materials for making pots, baskets, and metates.” (Steward, 1997:44)
 “Women were more generalized in their subsistence activities foraging for plant foods and small game, fish and molluscs. They provided most of the vegetable food consumed, while men were carrying out specialized hunting and fishing activities, being largely responsible for the provision of meat (e.g., Thomson, 1949; McArthur, 1960; Meggitt, 1964; Hiatt, 1974; Jones, 1980; Meehan, 1980).” White (1970:332)</t>
   </si>
   <si>
-    <t>Pocket gophers (Geomyidae sp., &lt;1 kg) ground squirrels (Citellus sp. &lt;1 kg), prairie dogs (Cynomys sp., &lt;1 kg), chipmunks (Callospermophilus and Eutamias, &lt;1 kg) and packrats (Neotoma cinerea, &lt;1 kg)</t>
-  </si>
-  <si>
-    <t>Women hunt rodents.</t>
+    <t>Pocket gophers (Geomyidae sp., &lt;1 kg) ground squirrels (Citellus sp. &lt;1 kg), prairie dogs (Cynomys sp., &lt;1 kg), chipmunks (Callospermophilus and Eutamias, &lt;1 kg) and packrats (Neotoma cinerea, &lt;1 kg) (Steward, 1997:40)</t>
+  </si>
+  <si>
+    <t>Women hunt small game (‘frequently’) but “Men did all large-game hunting” (‘never’)</t>
   </si>
   <si>
     <t>Fish Lake Valley North Paiute</t>
   </si>
   <si>
-    <t>Table 1: Steward (1997)
-Table S1: Steward (1997)
-Confirmation source: Steward (1997)</t>
-  </si>
-  <si>
-    <t>“Men did all large-game hunting, manufactured chipped flint implements, digging sticks and rabbit-skin blankets, built houses, and assisted women in such tasks as hunting rodents, carrying woodand water, transporting seeds, and even gathering some materials for making pots, baskets, and metates.” Steward, (1997:44)</t>
+    <t>Table 1: Steward (1997)[101]
+Table S1: Steward (1997)[101]
+Confirmation source: Steward (1997)[101]</t>
+  </si>
+  <si>
+    <t>“Men did all large-game hunting, manufactured chipped flint implements, digging sticks and rabbit-skin blankets, built houses, and assisted women in such tasks as hunting rodents, carrying wood and water, transporting seeds, and even gathering some materials for making pots, baskets, and metates.” Steward, (1997:44)</t>
+  </si>
+  <si>
+    <t>Pocket gophers (Geomyidae sp., &lt;1 kg) ground squirrels (Citellus sp. &lt;1 kg), prairie dogs (Cynomys sp., &lt;1 kg), chipmunks (Callospermophilus and Eutamias, &lt;1 kg) and packrats (Neotoma cinerea, &lt;1 kg) Steward, (1997:40)</t>
+  </si>
+  <si>
+    <t>Northern Paiute part of Great Basin groups described b Stewart (1997)</t>
+  </si>
+  <si>
+    <t>Hunting rodents is implied to be a women’s task (‘frequently’) but “Men did all large-game hunting” (‘never’)</t>
   </si>
   <si>
     <t>Iroquois</t>
   </si>
   <si>
-    <t>Table 1: Brown (1970)
-Table S1: Brown (1970)
-Confirmation source: Brown (1970)</t>
+    <t>Table 1: Brown (1970)[110]
+Table S1: Brown (1970)[110]
+Confirmation source: Brown (1970)[110]</t>
   </si>
   <si>
     <t>“Although wives or temporary wives, appointed especially for the purpose, occasionally accompanied men on the hunt, it was more usual for this to be a male pursuit.” Brown, (1970:157)
 “Both the Iroquois and the Bemba depended upon garden agriculture for the major portion of their food supply. Both tribes supplemented cultivated foods with foods gathered by the women, with meat hunted by the men and with fish obtained by both men and women. Among the Iroquois, women occasionally joined the hunting expedition.” Brown, (1970:157)</t>
   </si>
   <si>
-    <t>Women are stated to sometimes go on hunting trips with men but their role on these hunting trips is not defined. It is explicitly stated that men and women fish, whereas meat is said to be taken by men.</t>
+    <t>Women are stated to sometimes go on hunting trips with men but their role on these hunting trips is not defined. It is explicitly stated that men and women fish, whereas meat is said to be taken by men. (‘no evidence’)</t>
   </si>
   <si>
     <t>Cree</t>
   </si>
   <si>
     <t>USS
-Table 1: Flannery (1995) 
-Table S1: Flannery (1995); Brightman, 1996
-Confirmation source: Flannery (1995); Flannery 1935 (Flannery, 1932)as cited by Brightman 1996</t>
+Table 1: Flannery (1995)[111] 
+Table S1: Flannery (1995)[111]; Brightman, 1996[33]
+Confirmation source: Flannery (1995)[111]; Flannery 1935[112] as cited by Brightman 1996[33]</t>
   </si>
   <si>
     <t>“They could set snares, make and set wooden traps, sew and cook, and make and use fish nets.” Flannery (1995:13)
 “Although Ellen spoke of "hunting," this meant shooting whatever game she might come upon by chance, rather than tracking caribou or stalking other large game as a male hunter would do. She also became adept at trapping fur-bearing animals and referred to this as hunting also.” Flannery (1995:22)
-“Eastern Cree women hunted both when male relatives were ill, dead or displayed "just plain incompetence . . . at hunting" (Flannery 1935:83).” Flannery (1935) as cited by Brightman (1996:693)</t>
-  </si>
-  <si>
-    <t>fur-bearing animals and rabbits (Leporidae sp., 1.3-6 kg)</t>
-  </si>
-  <si>
-    <t>Women are shown to set traps for small mammals and sometimes take part in opportunistic hunting with rifles. The evolutionary implications of this case are weakened by the use of a rifle.</t>
+“Eastern Cree women hunted both when male relatives were ill, dead or displayed "just plain incompetence . . . at hunting" (Flannery 1935:83).” as cited by Brightman (1996:693)</t>
+  </si>
+  <si>
+    <t>Fur-bearing animals and rabbits (Leporidae sp., 1.3-6 kg), caribou (Rangifer tarandus, 80-200 kg) Flannery (1995:22)</t>
+  </si>
+  <si>
+    <t>Women set traps for small mammals (‘frequently’) and “might” participate in opportunistic hunting with rifles (‘rarely’). The evolutionary implications of this case are weakened by the use of a rifle.</t>
   </si>
   <si>
     <t>Tsimane</t>
   </si>
   <si>
-    <t>Table 1: Medinaceli &amp; Quinlan (2018) 
-Table S1: Medinaceli &amp; Quinlan (2018) 
-Confirmation source: Medinaceli &amp; Quinlan (2018)</t>
+    <t>Table 1: Medinaceli &amp; Quinlan (2018) [40]
+Table S1: Medinaceli &amp; Quinlan (2018) [40]
+Confirmation source: Medinaceli &amp; Quinlan (2018)[40]</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>“Some women participate in hunting, most commonly as companions to their husband. Women rarely hunt without men. Women sometimes opportunistically catch and kill small animals using a machete or bare hands while engaged in other work.” Medinaceli &amp; Quinlan (2018), p. 233
-“One afternoon I was washing clothes on the river when my son told me that a ‘jochi’ (paca) was about to cross the river, and once I saw the paca I grabbed my machete and I went after the animal, since they cannot swim fast, I caught up with it and hit it in the head, and that is how I hunted it.” Medinaceli &amp; Quinlan (2018), p. 233</t>
-  </si>
-  <si>
-    <t>Paca (Cuniculus paca, 5-13 kg)</t>
-  </si>
-  <si>
-    <t>Women attend hunts with their husbands but their roles on these trips are not defined. They are said to take part in opportunistic hunting of small mammals.</t>
+    <t>“Some women participate in hunting, most commonly as companions to their husband. Women rarely hunt without men. Women sometimes opportunistically catch and kill small animals using a machete or bare hands while engaged in other work.” Medinaceli &amp; Quinlan (2018:233)
+“One afternoon I was washing clothes on the river when my son told me that a ‘jochi’ (paca) was about to cross the river, and once I saw the paca I grabbed my machete and I went after the animal, since they cannot swim fast, I caught up with it and hit it in the head, and that is how I hunted it.” quoted in Medinaceli &amp; Quinlan (2018:233)</t>
+  </si>
+  <si>
+    <t>Paca (Cuniculus paca, 5-13 kg) Medinaceli &amp; Quinlan (2018:233)</t>
+  </si>
+  <si>
+    <t>Women “sometimes” opportunistically hunt small mammals (‘sometimes’). Women attend hunts with their husbands but their roles on these trips are not defined (‘no evidence’).</t>
   </si>
   <si>
     <t>Northern Ache</t>
   </si>
   <si>
-    <t>Table 1: Hurtado et al. (1985)
-Table S1: Hurtado et al. (1985)
-Confirmation source: Hurtado et al. (1985)</t>
+    <t>Table 1: Hurtado et al. (1985)[113]
+Table S1: Hurtado et al. (1985)[113]
+Confirmation source: Hurtado et al. (1985)[113]</t>
   </si>
   <si>
     <t>“When women stop at a spot where the men are hunting, they occasionally help the men spot game.” (Hurtado et al. 1985:4)</t>
@@ -1079,81 +1128,84 @@
     <t>Nine-banded armadillo (Dasypus novemcinctus, 3.5-7.7 kg), paca (Cuniculus sp., 5-13kg), Coati (Nasua nasua, 2-7.2 kg) (Hurtado et al. 1985:17)</t>
   </si>
   <si>
-    <t>Women contribute to hunting success in the context of logistical support (spotting game).</t>
+    <t>Women contribute to hunting success in the context of logistical support (spotting game) but do not directly hunt (‘no evidence).</t>
   </si>
   <si>
     <t>Matses</t>
   </si>
   <si>
-    <t>Table 1: Romanoff (1983)
-Table S1: Romanoff (1983)
-Confirmation source: Romanoff (1983)</t>
+    <t>Table 1: Romanoff (1983)[114]
+Table S1: Romanoff (1983)[114]
+Confirmation source: Romanoff (1983) [114]</t>
   </si>
   <si>
     <t>“On hunts with their husbands, adult women spot game, take part in the chase, retrieve arrows, bring water to flood armadillo holes, encourage dogs, strike animals with sticks or machetes, participate in orienting the party, and carry meat home. On long hunts involving a forest camp, they pack food to the base, butcher and smoke meat, and carry meat home. While living in the longhouse, they catch frogs, fish, and small animals that blunder near a house; with children, they set garden traps for immature rodents.” Romanoff (1983: 339)</t>
   </si>
   <si>
-    <t>Nine-banded armadillo (Dasypus novemcinctus, 3.5-7.7 kg), paca (Cuniculus sp., 5-13kg), possibly tapir (Tapiridae sp., 150-320 kg)</t>
-  </si>
-  <si>
-    <t>Women participated in collective hunting and trap small animals near their house.</t>
+    <t>Nine-banded armadillo (Dasypus novemcinctus, 3.5-7.7 kg), paca (Cuniculus sp., 5-13kg), possibly tapir (Tapiridae sp., 150-320 kg) Romanoff (1983: 342)</t>
+  </si>
+  <si>
+    <t>Women participated in collective hunting and trap small animals. near their house. No mention of women hunting big game (‘no evidence’).</t>
   </si>
   <si>
     <t>Savanna Pumé</t>
   </si>
   <si>
     <t>USS
-Table 1: Hilton &amp; Greaves (2008)
-Table S1: Hilton &amp; Greaves (2008)
-Confirmation source: Hilton &amp; Greaves (2008); Hilton &amp; Greaves 2004 as cited by Hilton &amp; Greaves (2008)</t>
+Table 1: Hilton &amp; Greaves (2008)[115]
+Table S1: Hilton &amp; Greaves (2008)[115]
+Confirmation source: Hilton &amp; Greaves (2008)[115]; Hilton &amp; Greaves 2004[116] as cited by Hilton &amp; Greaves (2008)[115]</t>
   </si>
   <si>
     <t>“Women frequently carry firewood, tools, and large baskets of food for extended distances during gathering. They rarely carry or take along young children on foraging excursions, as child care in camp is readily available (Hilton &amp; Greaves 2004).” Hilton &amp; Greaves (2008)
 “Men rely on bow and arrow and excavation for all hunting.” Hilton &amp; Greaves (2008)</t>
   </si>
   <si>
-    <t>No mention of women hunting.</t>
-  </si>
-  <si>
     <t>Hiwi</t>
   </si>
   <si>
-    <t>Table 1: Hurtado &amp; Hill, 1990; Gurven &amp; Hill, 2009
-Table S1: Guerven &amp; Hill (2009); Hurtado &amp; Hill (1990)
-Confirmation source: Guerven &amp; Hill (2009); Hurtado &amp; Hill (1990)</t>
+    <t>Table 1: Hurtado &amp; Hill, 1990; Gurven &amp; Hill, 2009[13]
+Table S1: Gurven &amp; Hill (2009)[13]; Hurtado &amp; Hill (1990)[117]
+Confirmation source: Guerven &amp; Hill (2009)[13]; Hurtado &amp; Hill (1990)[117]</t>
   </si>
   <si>
     <t>“Hiwi women paddle canoes while their husbands stand and hunt with a bow for aquatic game.” Gurven &amp; Hill (2009:56)
-“Although Hiwi women often accompanied their husbands on hunting and fishing expe- ditions, they rarely engaged in hunting or fishing and only acquired 12 kilograms of meat (mainly fish and land turtles) over the entire sample period.” Hurtado &amp; Hill (1990:322)</t>
-  </si>
-  <si>
-    <t>Land turtles (not specified)</t>
-  </si>
-  <si>
-    <t>Women contribute to hunting success in the context of husband-wife collaborative teams, largely through logistical (rowing, spotting) support.</t>
+“Although Hiwi women often accompanied their husbands on hunting and fishing expeditions, they rarely engaged in hunting or fishing and only acquired 12 kilograms of meat (mainly fish and land turtles) over the entire sample period.” Hurtado &amp; Hill (1990:322)</t>
+  </si>
+  <si>
+    <t>Land turtles (not specified) Hurtado &amp; Hill (1990:322)</t>
+  </si>
+  <si>
+    <t>Women are said to (‘rarely’) engage in hunting of unspecified game.</t>
   </si>
   <si>
     <t>Yamana</t>
   </si>
   <si>
     <t>USS
-Table 1: Martens 2016; (likely referring to Azorín et al. 2016 chapter)
-Table S1: Singh (2001)
-Confirmation source: Gusinde (1986) as cited by Azorín et al. (2016)</t>
+Table 1: Hardy and Martens 2016[118]; (likely referring to Azorín et al. 2016 chapter)[119]
+Table S1: Singh (2001)[47]
+Confirmation source: Gusinde (1986)[120] as cited by Azorín et al. (2016)[119]</t>
   </si>
   <si>
     <t>“Men hunted marine mammals, although this activity required the displacement by canoe and therefore the collaboration of women (Gusinde, 1986 [1937]).” (Azorín et al., 2016)
 Singh (2001) does not mention Yamana</t>
   </si>
   <si>
-    <t>Women contribute to hunting success, largely through logistical (rowing) support.</t>
+    <t>Women contribute to hunting success, largely through logistical (rowing) support (‘no evidence’).</t>
+  </si>
+  <si>
+    <t>Table S1. Re-analysis of the 63 societies for which Anderson et al. (2023) found explicit descriptions of hunting. Society: as found in Anderson et al. (2023). Subsistence: as stated by Anderson et al. (2023). Reference: as stated in Anderson et al. (2023), along with a comment. USS = undisclosed secondary source; this refers to the case in which Anderson et al. (2023) cited a source with evidence that actually comes from at least one other source that is not directly referenced by Anderson et al. (2023). Confirmation source = source(s) from Anderson et al. (2023) that we found most relevant to confirming women hunting. Prey size category: as coded by Anderson et al. (2023): small (1), medium (2), large game (3), all (4). Presence of women’s hunting: as coded by Anderson et al. (2023).</t>
+  </si>
+  <si>
+    <t>The following columns correspond to our re-coding. Subsistence: Recoding of the subsistence type of Anderson et al. (2023), according to D-PLACE or other primary literature sources. HH = Hunter-Horticulturalists, A = Agriculturalists, H = Horiculturalists, HG = Hunter Gatherers, F = Fishers. Information from references: Within the source ethnographies used by Anderson et al (2023), we selected text fragments that appeared to us the most relevant for coding the presence of women’s hunting, the frequency of hunting, and the size of prey hunted. While other sources contained relevant information about women’s hunting in these societies that was not consulted by Anderson et al. (2023), we confined our re-analysis to only the ethnographic sources - and sources used therein - used by Anderson et al. (2023). For a case to count as positive evidence for women’s hunting in our re-coding, it must involve ‘active’ participation by women (not only spiritual or ritual purposes). Species &amp; body size: Refers to prey specifically hunted by women. When prey pursued not specifically referred to, all potential prey listed. Species names taken from source ethnography; various online sources used to find average body weights. Most paragraphs contained information about prey species pursued. When this was not the case and thus no information about body size was available, we sourced potential prey species from online or ethnographic sources. These sources are listed. In cases where women are clearly not hunting based on the evidence, prey species not listed. Hunt small-medium game? (&lt;45kg), Hunt large game?(&gt;=45kg): For these columns, we assessed the frequency of hunting. In cases where body size of prey straddles the 45 kg cutoff, both columns were coded. When conflicting information is present between or within paragraphs (see the case of the !Kung, in which it is said ‘women do not hunt’, but in the same paragraph it is stated that they participate as beaters), we consider the concrete statements to overrule the general statement, thus favoring positive coding of women’s hunting. Frequently = Participation in hunting with some kind of regularity, including seasonal behaviour. Example phrases include ‘frequently’, ‘always’, ‘common’, ‘often’, or similar. Sometimes = Participation in hunting occurs less often than frequently but more often than rarely. Example phrases include ‘occasionally’, ‘sometimes’, or similar. When cases do not give any indication of frequency but state ‘women hunt’ or the statement involves the word ‘do’, we coded this as ‘frequently’, as such definitive statements are considered to refer to habitual behavior. This is downgraded to ‘sometimes’ if there is other evidence suggesting that the behavior does not qualify as frequent (see the case of the Sua). Rarely = Participation in hunting occurred one time or rarely. Alternatively, it was based on hearsay, indicating the ethnographers themselves never observed it (suggesting rarity). This was also coded for inferred cases (e.g. authors state that net-hunting involves women, and that net-hunting involves capture of given species, but not explicitly stated that women capture given species). Phrases such as accidental, opportunistic, and chance fell under this coding. Never = Participation in hunting by women said explicitly to not occur, or that only men hunt. No evidence = No mention of women hunting, but cannot be definitively excluded. When only small or large game is mentioned, the unmentioned size class is classified as ‘no evidence.’ Pseudoreplication: Societies coded independently in Anderson et al. (2023) that are in fact the same society. Summary = Our general comments on the case.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1167,11 +1219,6 @@
       <name val="Calibri"/>
     </font>
     <font/>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -1195,7 +1242,18 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF202020"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1209,7 +1267,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1220,6 +1278,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1273,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1282,16 +1346,25 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1303,23 +1376,26 @@
     <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,6 +1406,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1536,13 +1616,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="3" max="3" width="27.38"/>
-    <col customWidth="1" min="6" max="6" width="53.63"/>
-    <col customWidth="1" min="7" max="7" width="63.88"/>
-    <col customWidth="1" min="10" max="10" width="23.63"/>
-    <col customWidth="1" min="11" max="11" width="17.75"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1625,7 +1698,7 @@
       <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -1645,7 +1718,7 @@
       <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="6">
@@ -1661,30 +1734,30 @@
         <v>27</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="D5" s="6">
         <v>2.0</v>
@@ -1696,33 +1769,33 @@
         <v>17</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>41</v>
+      <c r="C6" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="6">
         <v>2.0</v>
@@ -1734,48 +1807,48 @@
         <v>17</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>20</v>
@@ -1783,22 +1856,22 @@
       <c r="J7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>39</v>
+      <c r="K7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>51</v>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D8" s="6">
         <v>3.0</v>
@@ -1810,33 +1883,33 @@
         <v>17</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="D9" s="6">
         <v>3.0</v>
@@ -1848,33 +1921,33 @@
         <v>17</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="J9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>54</v>
+      <c r="K9" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>60</v>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D10" s="6">
         <v>2.0</v>
@@ -1886,109 +1959,109 @@
         <v>17</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>63</v>
+      <c r="J10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>39</v>
+      <c r="H11" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="9">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="11">
         <v>1.0</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="9" t="s">
         <v>72</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>39</v>
+      <c r="J12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>75</v>
+      <c r="C13" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="D13" s="6">
         <v>4.0</v>
@@ -2000,33 +2073,33 @@
         <v>17</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="6" t="s">
         <v>80</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D14" s="6">
         <v>1.0</v>
@@ -2038,33 +2111,33 @@
         <v>17</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>29</v>
+      <c r="J14" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="6" t="s">
         <v>86</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D15" s="6">
         <v>3.0</v>
@@ -2076,33 +2149,33 @@
         <v>17</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>21</v>
+        <v>89</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="6" t="s">
         <v>91</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="D16" s="6">
         <v>1.0</v>
@@ -2114,147 +2187,147 @@
         <v>17</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>29</v>
+      <c r="J16" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="6" t="s">
         <v>96</v>
       </c>
+      <c r="B17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>100</v>
+      <c r="C18" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>39</v>
+      <c r="H18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>104</v>
+      <c r="C19" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>29</v>
+        <v>107</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>109</v>
+      <c r="C20" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="D20" s="6">
         <v>3.0</v>
@@ -2266,33 +2339,33 @@
         <v>17</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>115</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="D21" s="6">
         <v>3.0</v>
@@ -2304,71 +2377,71 @@
         <v>17</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>123</v>
+      <c r="C23" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="D23" s="6">
         <v>1.0</v>
@@ -2376,37 +2449,37 @@
       <c r="E23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>39</v>
+      <c r="H23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>127</v>
+      <c r="C24" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="D24" s="6">
         <v>2.0</v>
@@ -2415,36 +2488,36 @@
         <v>16</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="6" t="s">
         <v>133</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="D25" s="6">
         <v>1.0</v>
@@ -2456,33 +2529,33 @@
         <v>17</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="6" t="s">
         <v>138</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="D26" s="6">
         <v>1.0</v>
@@ -2494,124 +2567,124 @@
         <v>17</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="9">
+        <v>30</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="11">
         <v>1.0</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>37</v>
+        <v>145</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>39</v>
+      <c r="K27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>147</v>
+        <v>30</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>17</v>
+        <v>86</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>21</v>
@@ -2620,97 +2693,97 @@
         <v>21</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>156</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>29</v>
+        <v>159</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>39</v>
+        <v>64</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D32" s="6">
         <v>1.0</v>
@@ -2722,71 +2795,71 @@
         <v>17</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>39</v>
+        <v>64</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>169</v>
+      <c r="C34" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="D34" s="6">
         <v>4.0</v>
@@ -2798,33 +2871,33 @@
         <v>17</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="s">
-        <v>173</v>
+      <c r="A35" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>174</v>
+        <v>30</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="D35" s="6">
         <v>1.0</v>
@@ -2836,109 +2909,109 @@
         <v>17</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>29</v>
+        <v>180</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D36" s="9">
+        <v>30</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="11">
         <v>1.0</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="E36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" s="9">
+        <v>30</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="11">
         <v>1.0</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="9" t="s">
+      <c r="E37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>189</v>
+        <v>86</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="D38" s="6">
         <v>2.0</v>
@@ -2950,33 +3023,33 @@
         <v>17</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>192</v>
+        <v>30</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="D39" s="6">
         <v>1.0</v>
@@ -2988,33 +3061,33 @@
         <v>17</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>197</v>
+        <v>202</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="D40" s="6">
         <v>3.0</v>
@@ -3026,33 +3099,33 @@
         <v>17</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>203</v>
+        <v>208</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="D41" s="6">
         <v>3.0</v>
@@ -3064,33 +3137,33 @@
         <v>17</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="10" t="s">
         <v>21</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>209</v>
+        <v>214</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="D42" s="6">
         <v>3.0</v>
@@ -3102,261 +3175,261 @@
         <v>17</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>39</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D43" s="14">
+        <v>86</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="17">
         <v>1.0</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>215</v>
+      <c r="E43" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>39</v>
+      <c r="K43" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D44" s="11">
+        <v>86</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" s="10">
         <v>1.0</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>219</v>
+      <c r="E44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>29</v>
+        <v>226</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="J44" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>39</v>
+      <c r="K44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="s">
-        <v>222</v>
+      <c r="A45" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D45" s="11">
+      <c r="C45" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="10">
         <v>3.0</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>224</v>
+      <c r="E45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>29</v>
+        <v>231</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K45" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>39</v>
+      <c r="K45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" s="11">
+      <c r="C46" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="10">
         <v>3.0</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>229</v>
+      <c r="E46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>29</v>
+        <v>236</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>39</v>
+      <c r="K46" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>65</v>
+        <v>238</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D47" s="11">
+        <v>239</v>
+      </c>
+      <c r="D47" s="10">
         <v>3.0</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>234</v>
+      <c r="E47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>29</v>
+        <v>241</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>39</v>
+      <c r="K47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="9" t="s">
+      <c r="C48" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>39</v>
+        <v>67</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="D49" s="6">
         <v>3.0</v>
@@ -3368,33 +3441,33 @@
         <v>17</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>245</v>
+        <v>35</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>39</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>247</v>
+      <c r="C50" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="D50" s="6">
         <v>3.0</v>
@@ -3403,74 +3476,74 @@
         <v>16</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>29</v>
+        <v>255</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="J50" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>39</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D51" s="9">
+        <v>30</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="11">
         <v>1.0</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="9" t="s">
+      <c r="E51" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>257</v>
+        <v>30</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="D52" s="6">
         <v>1.0</v>
@@ -3482,147 +3555,147 @@
         <v>17</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>39</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="s">
-        <v>259</v>
+      <c r="A53" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>39</v>
+        <v>268</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>263</v>
+        <v>86</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F55" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>39</v>
+        <v>67</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>270</v>
+      <c r="C56" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="D56" s="6">
         <v>1.0</v>
@@ -3634,31 +3707,33 @@
         <v>17</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>273</v>
+        <v>35</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="6" t="s">
-        <v>275</v>
+        <v>282</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="D57" s="6">
         <v>1.0</v>
@@ -3670,181 +3745,185 @@
         <v>17</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>273</v>
+        <v>34</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>39</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="6" t="s">
-        <v>278</v>
+        <v>288</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>29</v>
+        <v>67</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D59" s="9">
+        <v>293</v>
+      </c>
+      <c r="D59" s="11">
         <v>1.0</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="9" t="s">
+      <c r="E59" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J59" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K59" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>39</v>
+      <c r="K59" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D60" s="9">
+      <c r="A60" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="11">
         <v>1.0</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>288</v>
+      <c r="E60" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>39</v>
+      <c r="J60" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D61" s="9">
+      <c r="C61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D61" s="11">
         <v>1.0</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="9" t="s">
+      <c r="E61" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>39</v>
+        <v>306</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>298</v>
+      <c r="C62" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="D62" s="6">
         <v>3.0</v>
@@ -3853,87 +3932,89 @@
         <v>16</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>21</v>
+        <v>57</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>303</v>
+      <c r="C63" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G63" s="16" t="s">
-        <v>304</v>
+      <c r="G63" s="18" t="s">
+        <v>315</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>21</v>
@@ -3941,50 +4022,80 @@
       <c r="J64" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="L64" s="9" t="s">
-        <v>39</v>
+      <c r="K64" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="L65" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="19"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="19"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="19"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="19"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="19"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="19"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="19"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="19"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="19"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3993,12 +4104,100 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C3"/>
-    <hyperlink r:id="rId2" ref="G9"/>
-    <hyperlink r:id="rId3" ref="C32"/>
-    <hyperlink r:id="rId4" ref="C47"/>
-    <hyperlink r:id="rId5" ref="C59"/>
-    <hyperlink r:id="rId6" location="rf17" ref="G63"/>
+    <hyperlink r:id="rId2" ref="C4"/>
+    <hyperlink r:id="rId3" ref="C5"/>
+    <hyperlink r:id="rId4" ref="C6"/>
+    <hyperlink r:id="rId5" ref="C7"/>
+    <hyperlink r:id="rId6" ref="C8"/>
+    <hyperlink r:id="rId7" ref="C9"/>
+    <hyperlink r:id="rId8" ref="G9"/>
+    <hyperlink r:id="rId9" ref="C10"/>
+    <hyperlink r:id="rId10" ref="C11"/>
+    <hyperlink r:id="rId11" ref="C12"/>
+    <hyperlink r:id="rId12" ref="C13"/>
+    <hyperlink r:id="rId13" ref="C14"/>
+    <hyperlink r:id="rId14" ref="C15"/>
+    <hyperlink r:id="rId15" ref="C16"/>
+    <hyperlink r:id="rId16" ref="C17"/>
+    <hyperlink r:id="rId17" ref="C18"/>
+    <hyperlink r:id="rId18" ref="C19"/>
+    <hyperlink r:id="rId19" ref="C20"/>
+    <hyperlink r:id="rId20" ref="C21"/>
+    <hyperlink r:id="rId21" ref="C22"/>
+    <hyperlink r:id="rId22" ref="C23"/>
+    <hyperlink r:id="rId23" ref="C24"/>
+    <hyperlink r:id="rId24" ref="C25"/>
+    <hyperlink r:id="rId25" ref="C26"/>
+    <hyperlink r:id="rId26" ref="C27"/>
+    <hyperlink r:id="rId27" ref="C28"/>
+    <hyperlink r:id="rId28" ref="C29"/>
+    <hyperlink r:id="rId29" ref="C30"/>
+    <hyperlink r:id="rId30" ref="C31"/>
+    <hyperlink r:id="rId31" ref="C32"/>
+    <hyperlink r:id="rId32" ref="C33"/>
+    <hyperlink r:id="rId33" ref="C34"/>
+    <hyperlink r:id="rId34" ref="C35"/>
+    <hyperlink r:id="rId35" ref="C36"/>
+    <hyperlink r:id="rId36" ref="C37"/>
+    <hyperlink r:id="rId37" ref="C38"/>
+    <hyperlink r:id="rId38" ref="C39"/>
+    <hyperlink r:id="rId39" ref="C40"/>
+    <hyperlink r:id="rId40" ref="C41"/>
+    <hyperlink r:id="rId41" ref="C42"/>
+    <hyperlink r:id="rId42" ref="C43"/>
+    <hyperlink r:id="rId43" ref="C44"/>
+    <hyperlink r:id="rId44" ref="C45"/>
+    <hyperlink r:id="rId45" ref="C46"/>
+    <hyperlink r:id="rId46" ref="C47"/>
+    <hyperlink r:id="rId47" ref="G47"/>
+    <hyperlink r:id="rId48" ref="C48"/>
+    <hyperlink r:id="rId49" ref="C49"/>
+    <hyperlink r:id="rId50" ref="C50"/>
+    <hyperlink r:id="rId51" ref="C51"/>
+    <hyperlink r:id="rId52" ref="C52"/>
+    <hyperlink r:id="rId53" ref="C53"/>
+    <hyperlink r:id="rId54" ref="C54"/>
+    <hyperlink r:id="rId55" ref="C55"/>
+    <hyperlink r:id="rId56" ref="C56"/>
+    <hyperlink r:id="rId57" ref="C57"/>
+    <hyperlink r:id="rId58" ref="C58"/>
+    <hyperlink r:id="rId59" ref="C59"/>
+    <hyperlink r:id="rId60" ref="C60"/>
+    <hyperlink r:id="rId61" ref="C61"/>
+    <hyperlink r:id="rId62" ref="C62"/>
+    <hyperlink r:id="rId63" ref="C63"/>
+    <hyperlink r:id="rId64" location="rf17" ref="G63"/>
+    <hyperlink r:id="rId65" ref="C64"/>
+    <hyperlink r:id="rId66" ref="C65"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId67"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="98.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="135.0" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" ht="417.0" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>